--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="3"/>
+    <workbookView windowWidth="21300" windowHeight="9334" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,6 +106,98 @@
     <t>新老品牌</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aas</t>
+    </r>
+  </si>
+  <si>
+    <t>四川鼎鼎大龙餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>淮安</t>
+  </si>
+  <si>
+    <t>大龙火锅淮安文庙店</t>
+  </si>
+  <si>
+    <t>南京分公司</t>
+  </si>
+  <si>
+    <t>方兆强</t>
+  </si>
+  <si>
+    <t>谷姐</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>Saas</t>
+  </si>
+  <si>
+    <t>匠边鱼</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>关总</t>
+  </si>
+  <si>
+    <t>新品牌</t>
+  </si>
+  <si>
+    <t>风相餐饮管理</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>肉肉会社（常州店）</t>
+  </si>
+  <si>
+    <t>李姐</t>
+  </si>
+  <si>
+    <t>常州存誉国际大饭店</t>
+  </si>
+  <si>
+    <t>存乐坊</t>
+  </si>
+  <si>
+    <t>龚总</t>
+  </si>
+  <si>
+    <t>总监</t>
+  </si>
+  <si>
+    <t>誉善缘时尚餐厅</t>
+  </si>
+  <si>
+    <t>誉膳缘</t>
+  </si>
+  <si>
+    <t>豪包阁.宴会</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -121,6 +213,24 @@
     <t>销售人员</t>
   </si>
   <si>
+    <t>又卷烧饼润辉店</t>
+  </si>
+  <si>
+    <t>商户还未装修完毕</t>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>崔冰冰</t>
+  </si>
+  <si>
+    <t>又卷烧饼江都金鹰店</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -130,149 +240,23 @@
     <t>加班内容</t>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aas</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川鼎鼎大龙餐饮管理有限公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淮安</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大龙火锅淮安文庙店</t>
-  </si>
-  <si>
-    <t>南京分公司</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>方兆强</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷姐</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>老品牌</t>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saas</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>匠边鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关总</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品牌</t>
-  </si>
-  <si>
-    <t>风相餐饮管理</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉肉会社（常州店）</t>
-  </si>
-  <si>
-    <t>李姐</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州存誉国际大饭店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>存乐坊</t>
-  </si>
-  <si>
-    <t>存乐坊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>誉膳缘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>誉善缘时尚餐厅</t>
-  </si>
-  <si>
-    <t>豪包阁.宴会</t>
-  </si>
-  <si>
-    <t>龚总</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>总监</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>又卷烧饼润辉店</t>
-  </si>
-  <si>
-    <t>又卷烧饼江都金鹰店</t>
-  </si>
-  <si>
-    <t>商户还未装修完毕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>连锁</t>
-  </si>
-  <si>
-    <t>SAAS</t>
-  </si>
-  <si>
-    <t>崔冰冰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>匠边鱼驻店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>常州存誉国际大饭店驻店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,11 +273,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,36 +330,155 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,7 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,8 +533,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -532,7 +836,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,7 +862,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,13 +1096,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,9 +1363,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,57 +1384,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,6 +1483,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,6 +1501,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,6 +1519,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,65 +1570,58 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1293,316 +1883,316 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="16" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.12612612612613" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.12612612612613" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.2522522522523" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.7477477477477" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.8738738738739" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5045045045045" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8738738738739" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8738738738739" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.8738738738739" style="37" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.8738738738739" style="11" customWidth="1"/>
+    <col min="13" max="13" width="18.6216216216216" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" ht="15.75" spans="1:13">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="59"/>
+    </row>
+    <row r="2" ht="14.85" spans="1:13">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="62">
+      <c r="A3" s="46">
         <v>12</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="47">
         <v>49</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="49">
         <v>1</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="49">
         <v>0</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36">
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="65">
         <v>0</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="66">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="67">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="68">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="69">
         <f>L3/K3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="62"/>
-      <c r="B4" s="33">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47">
         <v>50</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="48">
         <v>2</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="49">
         <v>2</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="49">
         <v>0</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36">
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="50">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="65">
         <v>1</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="66">
         <f>I4/L4*100%</f>
         <v>0.5</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="67">
         <f t="shared" ref="K4:K8" si="1">C4+G4</f>
         <v>2</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="68">
         <f t="shared" ref="L4:L8" si="2">D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="69">
         <f t="shared" ref="M4:M8" si="3">L4/K4*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="62"/>
-      <c r="B5" s="33">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47">
         <v>51</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="48">
         <v>3</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="49">
         <v>3</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="49">
         <v>0</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36">
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="65">
         <v>0</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="66">
         <f t="shared" ref="J5:J8" si="4">I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="68">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="69">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="62"/>
-      <c r="B6" s="33">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47">
         <v>52</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="48">
         <v>2</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="49">
         <v>0</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="49">
         <v>2</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36">
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="65">
         <v>0</v>
       </c>
-      <c r="J6" s="49" t="e">
+      <c r="J6" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="62"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49">
         <f t="shared" ref="E6:E8" si="5">C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36">
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49" t="e">
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="52" t="e">
+      <c r="M7" s="69" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="63"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40">
+    <row r="8" ht="14.85" spans="1:13">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41">
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54" t="e">
+      <c r="I8" s="70"/>
+      <c r="J8" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="57" t="e">
+      <c r="M8" s="74" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1612,362 +2202,363 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.74774774774775" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="12.8738738738739" customWidth="1"/>
+    <col min="2" max="3" width="11.5045045045045" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.3783783783784" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="10.2522522522523" customWidth="1"/>
+    <col min="8" max="8" width="17.1261261261261" customWidth="1"/>
+    <col min="9" max="9" width="9.87387387387387" customWidth="1"/>
+    <col min="10" max="10" width="13.8738738738739" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="27">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="29" customFormat="1" ht="28.3" spans="1:15">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" ht="14.15" spans="1:15">
       <c r="A2" s="1">
         <v>48</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="33">
         <v>43070</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="69">
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="34">
         <v>76110980</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>42</v>
+      <c r="H2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="K2" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L2" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="69">
+      <c r="L2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="34">
         <v>15851768059</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>44</v>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>50</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="33">
         <v>43087</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="69">
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="34">
         <v>76113785</v>
       </c>
-      <c r="H3" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="68" t="s">
+      <c r="H3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15952077449</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="M3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="34">
+        <v>15852909976</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" s="14">
-        <v>15952077449</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="69">
-        <v>15852909976</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
+        <v>52</v>
+      </c>
+      <c r="B4" s="35">
+        <v>43093</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="34">
+        <v>76117209</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15952077449</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="34">
+        <v>13382830565</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>52</v>
+      </c>
+      <c r="B5" s="35">
+        <v>43093</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="34">
+        <v>76117600</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15952077449</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="34">
+        <v>15312573777</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>52</v>
+      </c>
+      <c r="B6" s="35">
+        <v>43093</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="34">
+        <v>76117605</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="71">
+      <c r="I6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15952077449</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="34">
+        <v>15312573777</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="35">
         <v>43093</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="68" t="s">
+      <c r="C7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="69">
-        <v>76117209</v>
-      </c>
-      <c r="H4" s="70" t="s">
+      <c r="F7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="34">
+        <v>76117608</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="68" t="s">
+      <c r="I7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15952077449</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="34">
+        <v>15312573777</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K4" s="14">
-        <v>15952077449</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="69">
-        <v>13382830565</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="14">
-        <v>51</v>
-      </c>
-      <c r="B5" s="71">
-        <v>43093</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="69">
-        <v>76117600</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="14">
-        <v>15952077449</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="69">
-        <v>15312573777</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="14">
-        <v>51</v>
-      </c>
-      <c r="B6" s="71">
-        <v>43093</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="69">
-        <v>76117605</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="14">
-        <v>15952077449</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="69">
-        <v>15312573777</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="14">
-        <v>51</v>
-      </c>
-      <c r="B7" s="71">
-        <v>43093</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="69">
-        <v>76117608</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="14">
-        <v>15952077449</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="69">
-        <v>15312573777</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6952,7 +7543,6 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -6960,899 +7550,900 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1 G8:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="G1 G8:G1048576"/>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62162162162162" defaultRowHeight="14.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="8"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="8.62162162162162" style="11"/>
+    <col min="2" max="2" width="15.6216216216216" customWidth="1"/>
+    <col min="3" max="3" width="12.7477477477477" customWidth="1"/>
+    <col min="4" max="4" width="35.2522522522523" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.5045045045045" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.3783783783784" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="14.15" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="64">
+      <c r="C1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="14.15" spans="1:7">
+      <c r="A2" s="15">
         <v>52</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="19">
-        <v>43094</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="65"/>
-      <c r="B3" s="70" t="s">
+    </row>
+    <row r="3" ht="14.15" spans="1:7">
+      <c r="A3" s="20"/>
+      <c r="B3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>43095</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>68</v>
+      <c r="D3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="65"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="65"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="65"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="65"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="66"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" ht="15" spans="1:7">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" ht="15" spans="1:7">
+      <c r="A15" s="20"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" ht="15" spans="1:7">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="65"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="65"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="65"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="65"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="65"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="65"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="65"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="65"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="65"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="66"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="12"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" ht="15" spans="1:7">
+      <c r="A27" s="15"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" ht="15" spans="1:7">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="65"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="65"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="65"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="65"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="65"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="65"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="65"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="65"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="65"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="65"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="65"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="65"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="66"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="7"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" ht="15" spans="1:7">
+      <c r="A42" s="15"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" ht="15" spans="1:7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="65"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="65"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="65"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="65"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="65"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="65"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="65"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="65"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="65"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="65"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="65"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="65"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="66"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="20"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" ht="15" spans="1:7">
+      <c r="A57" s="15"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" ht="15" spans="1:7">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" ht="15" spans="1:7">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" ht="15" spans="1:7">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="28"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="65"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="65"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="65"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="65"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="65"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="65"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="65"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="66"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="65"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="65"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="20"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" ht="15" spans="1:7">
+      <c r="A69" s="15"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" ht="15" spans="1:7">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" ht="15" spans="1:7">
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" ht="15" spans="1:7">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="65"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="65"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="65"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="65"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="65"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="65"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="65"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="66"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="65"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="20"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" ht="15" spans="1:7">
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" ht="15" spans="1:7">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="65"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="65"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="65"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="65"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="65"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="65"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="65"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="66"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="A81:A90"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A26"/>
     <mergeCell ref="A27:A41"/>
     <mergeCell ref="A42:A56"/>
     <mergeCell ref="A57:A68"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A81:A90"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -7862,118 +8453,120 @@
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1261261261261" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7477477477477" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="14.85" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5">
         <v>12</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7">
         <v>43086</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>69</v>
+      <c r="D2" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="75">
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9">
         <v>43092</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -1283,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1596,32 +1596,42 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="70"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="33">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="36">
         <f t="shared" ref="H11:H14" si="6">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="48">
+        <v>0</v>
+      </c>
       <c r="J11" s="49" t="e">
         <f>I11/L11*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K11" s="50">
         <f t="shared" ref="K11:K14" si="7">C11+G11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="51">
         <f t="shared" ref="L11:L14" si="8">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="52" t="e">
+      <c r="M11" s="52">
         <f t="shared" ref="M11:M14" si="9">L11/K11*100%</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1654,7 +1664,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="70"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -1684,7 +1694,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
@@ -1713,20 +1723,6 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" thickBot="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1745,7 +1741,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -6974,7 +6970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -255,6 +255,38 @@
   </si>
   <si>
     <t>八戒肥肠(3家店)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅掌门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已实施，店铺1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8号开业</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>汪冰洋</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1318,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1606,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
@@ -1636,32 +1668,42 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="70"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="34">
+        <v>6</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>6</v>
+      </c>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
       <c r="H12" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="48">
+        <v>0</v>
+      </c>
       <c r="J12" s="49" t="e">
         <f t="shared" ref="J12:J14" si="10">I12/L12*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="50">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M12" s="52" t="e">
+      <c r="M12" s="52">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
@@ -1741,7 +1783,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
@@ -6971,7 +7013,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7075,12 +7117,24 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="73"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="19">
+        <v>43114</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="73"/>

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -130,27 +130,6 @@
     <t>加班内容</t>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aas</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saas</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>又卷扬州餐饮企业管理有限公司</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -213,10 +192,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>和福饺子</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>店铺装修中</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -224,17 +199,10 @@
     <t>连锁</t>
   </si>
   <si>
-    <t>单店</t>
-  </si>
-  <si>
     <t>SAAS</t>
   </si>
   <si>
     <t>崔冰冰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张波</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -262,23 +230,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>已实施，店铺1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8号开业</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>单店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -289,11 +240,42 @@
     <t>汪冰洋</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>和福饺子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>方兆强</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实施，店铺试运行中</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -817,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,16 +848,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -992,9 +965,6 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1014,6 +984,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1331,440 +1322,436 @@
     <col min="7" max="7" width="15.5" style="8" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="26" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="23" customWidth="1"/>
     <col min="11" max="11" width="16" style="8" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="70">
+      <c r="A3" s="73">
         <v>12</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="30">
         <v>51</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <v>1</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="32">
         <v>0</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="33">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="45">
         <v>0</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="46">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="47">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="48">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="49">
         <f>L3/K3*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="70"/>
-      <c r="B4" s="33">
+      <c r="A4" s="73"/>
+      <c r="B4" s="30">
         <v>52</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="32">
         <v>1</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>0</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="36">
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33">
         <f t="shared" ref="H4:H8" si="0">F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="45">
         <v>1</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="46">
         <f>I4/L4*100%</f>
         <v>1</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="47">
         <f t="shared" ref="K4:K5" si="1">C4+G4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="48">
         <f t="shared" ref="L4:L5" si="2">D4+G4</f>
         <v>1</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="49">
         <f t="shared" ref="M4:M5" si="3">L4/K4*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="70"/>
-      <c r="B5" s="33">
+      <c r="A5" s="73"/>
+      <c r="B5" s="30">
         <v>53</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>5</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="32">
         <v>3</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>2</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36">
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49">
+      <c r="I5" s="45"/>
+      <c r="J5" s="46">
         <f t="shared" ref="J5:J9" si="4">I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="47">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="48">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="49">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="70"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36">
+      <c r="A6" s="73"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="70"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36">
+      <c r="A7" s="73"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41">
+      <c r="A8" s="74"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="57"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A9" s="70">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
         <f t="shared" ref="E9" si="5">C9-D9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54" t="e">
+      <c r="I9" s="50"/>
+      <c r="J9" s="51" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="70"/>
-      <c r="B10" s="33">
+      <c r="A10" s="73"/>
+      <c r="B10" s="30">
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>7</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="32">
         <v>2</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="32">
         <v>5</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33">
         <f>F10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="45">
         <v>1</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="46">
         <f>I10/L10*100%</f>
         <v>0.5</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="47">
         <f>C10+G10</f>
         <v>7</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="48">
         <f>D10+G10</f>
         <v>2</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="49">
         <f>L10/K10*100%</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="70"/>
-      <c r="B11" s="33">
+      <c r="A11" s="73"/>
+      <c r="B11" s="30">
         <v>2</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="31">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="32">
         <v>0</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>5</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="36">
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33">
         <f t="shared" ref="H11:H14" si="6">F11-G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="45">
         <v>0</v>
       </c>
-      <c r="J11" s="49" t="e">
-        <f>I11/L11*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="50">
-        <f t="shared" ref="K11:K14" si="7">C11+G11</f>
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+      <c r="K11" s="47">
+        <f t="shared" ref="K11:K13" si="7">C11+G11</f>
         <v>5</v>
       </c>
-      <c r="L11" s="51">
-        <f t="shared" ref="L11:L14" si="8">D11+G11</f>
+      <c r="L11" s="48">
+        <f t="shared" ref="L11:L13" si="8">D11+G11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="52">
-        <f t="shared" ref="M11:M14" si="9">L11/K11*100%</f>
+      <c r="M11" s="49">
+        <f t="shared" ref="M11:M13" si="9">L11/K11*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="70"/>
-      <c r="B12" s="33">
+      <c r="A12" s="73"/>
+      <c r="B12" s="30">
         <v>3</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="31">
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="32">
         <v>0</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="32">
         <v>6</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36">
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="45">
         <v>0</v>
       </c>
-      <c r="J12" s="49" t="e">
-        <f t="shared" ref="J12:J14" si="10">I12/L12*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="50">
+      <c r="J12" s="46">
+        <v>0</v>
+      </c>
+      <c r="K12" s="47">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="36">
+      <c r="A13" s="73"/>
+      <c r="B13" s="30">
+        <v>4</v>
+      </c>
+      <c r="C13" s="31">
+        <v>6</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>5</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="50">
+      <c r="I13" s="45">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
+        <f t="shared" ref="J13" si="10">I13/L13*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="51">
+        <v>6</v>
+      </c>
+      <c r="L13" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="52" t="e">
+        <v>1</v>
+      </c>
+      <c r="M13" s="49">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="36">
+      <c r="A14" s="74"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="52" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1783,13 +1770,14 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="64" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -1800,50 +1788,50 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="27">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="27">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1851,117 +1839,147 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="62">
         <v>43102</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="E2" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="G2" s="56">
+        <v>76119980</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="I2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="60">
-        <v>76119980</v>
-      </c>
-      <c r="H2" s="59" t="s">
+      <c r="J2" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>44</v>
       </c>
       <c r="K2" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L2" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>46</v>
+      <c r="L2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>44</v>
       </c>
       <c r="N2" s="1">
         <v>18112141314</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="62">
         <v>43103</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="59" t="s">
+      <c r="C3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="56">
+        <v>76120617</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="60">
-        <v>76120617</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>44</v>
+      <c r="I3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="K3" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="56">
+        <v>15651615666</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="60">
-        <v>15651615666</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="62">
+        <v>43124</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="56">
+        <v>76125705</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="1">
+        <v>13952023516</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1977,8 +1995,8 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1994,8 +2012,8 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2011,7 +2029,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2028,7 +2046,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2045,7 +2063,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2062,7 +2080,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2079,7 +2097,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2096,7 +2114,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2113,7 +2131,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2130,7 +2148,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2147,7 +2165,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2164,7 +2182,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2181,7 +2199,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2198,7 +2216,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2215,7 +2233,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2232,7 +2250,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2249,7 +2267,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2266,7 +2284,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2283,7 +2301,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2300,7 +2318,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2317,7 +2335,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2334,7 +2352,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2351,7 +2369,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2368,7 +2386,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2385,7 +2403,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2402,7 +2420,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2419,7 +2437,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2436,7 +2454,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2453,7 +2471,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2470,7 +2488,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2487,7 +2505,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2504,7 +2522,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2521,7 +2539,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2538,7 +2556,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2555,7 +2573,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2572,7 +2590,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2589,7 +2607,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2606,7 +2624,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2623,7 +2641,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2640,7 +2658,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2657,7 +2675,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2674,7 +2692,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2691,7 +2709,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2708,7 +2726,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2725,7 +2743,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2742,7 +2760,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2759,7 +2777,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2776,7 +2794,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2793,7 +2811,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2810,7 +2828,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2827,7 +2845,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="62"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2844,7 +2862,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2861,7 +2879,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="62"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2878,7 +2896,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2895,7 +2913,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2912,7 +2930,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2929,7 +2947,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2946,7 +2964,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="62"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2963,7 +2981,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2980,7 +2998,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2997,7 +3015,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="62"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3014,7 +3032,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="62"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3031,7 +3049,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="62"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3048,7 +3066,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="62"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3065,7 +3083,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="62"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3082,7 +3100,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="62"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3099,7 +3117,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="62"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3116,7 +3134,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="62"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3133,7 +3151,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="62"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3150,7 +3168,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="62"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3167,7 +3185,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="62"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3184,7 +3202,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="62"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3201,7 +3219,7 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3218,7 +3236,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3235,7 +3253,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="62"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3252,7 +3270,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="62"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3269,7 +3287,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="62"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3286,7 +3304,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="62"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3303,7 +3321,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="62"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3320,7 +3338,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="62"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3337,7 +3355,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="62"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3354,7 +3372,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="62"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3371,7 +3389,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="62"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3388,7 +3406,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="62"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3405,7 +3423,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="62"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3422,7 +3440,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="62"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3439,7 +3457,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="62"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3456,7 +3474,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="62"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3473,7 +3491,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="62"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3490,7 +3508,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="62"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3507,7 +3525,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="62"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3524,7 +3542,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="62"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3541,7 +3559,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="62"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3558,7 +3576,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="62"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3575,7 +3593,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="62"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3592,7 +3610,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="62"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3609,7 +3627,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="62"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3626,7 +3644,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="62"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3643,7 +3661,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="62"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3660,7 +3678,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="62"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3677,7 +3695,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="62"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3694,7 +3712,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="62"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3711,7 +3729,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="62"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3728,7 +3746,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="62"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3745,7 +3763,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="62"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3762,7 +3780,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="62"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3779,7 +3797,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="62"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3796,7 +3814,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="62"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3813,7 +3831,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="62"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="62"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3847,7 +3865,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="62"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3864,7 +3882,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="62"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3881,7 +3899,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="62"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3898,7 +3916,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="62"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3915,7 +3933,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="62"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3932,7 +3950,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="62"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3949,7 +3967,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="62"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3966,7 +3984,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="62"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3983,7 +4001,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="62"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4000,7 +4018,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="62"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4017,7 +4035,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="62"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4034,7 +4052,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="62"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4051,7 +4069,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="62"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4068,7 +4086,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="62"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4085,7 +4103,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="62"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4102,7 +4120,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="62"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4119,7 +4137,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="62"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4136,7 +4154,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="62"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4153,7 +4171,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="62"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4170,7 +4188,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="62"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4187,7 +4205,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="62"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4204,7 +4222,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="62"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4221,7 +4239,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="62"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4238,7 +4256,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="62"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4255,7 +4273,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="62"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4272,7 +4290,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="62"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4289,7 +4307,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="62"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4306,7 +4324,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="62"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4323,7 +4341,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="62"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4340,7 +4358,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="62"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4357,7 +4375,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="62"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4374,7 +4392,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="62"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4391,7 +4409,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="62"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4408,7 +4426,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="62"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4425,7 +4443,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="62"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4442,7 +4460,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="62"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4459,7 +4477,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="62"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4476,7 +4494,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="62"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4493,7 +4511,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="62"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -4510,7 +4528,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="62"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -4527,7 +4545,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="62"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4544,7 +4562,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="62"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -4561,7 +4579,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="62"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -4578,7 +4596,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="62"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4595,7 +4613,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="62"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -4612,7 +4630,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="62"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -4629,7 +4647,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="62"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4646,7 +4664,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="62"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -4663,7 +4681,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="62"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -4680,7 +4698,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="62"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4697,7 +4715,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="62"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -4714,7 +4732,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="62"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -4731,7 +4749,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="62"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -4748,7 +4766,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="62"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -4765,7 +4783,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="62"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -4782,7 +4800,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="62"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -4799,7 +4817,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="62"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -4816,7 +4834,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="62"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -4833,7 +4851,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="62"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -4850,7 +4868,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="62"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -4867,7 +4885,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="62"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -4884,7 +4902,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="62"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -4901,7 +4919,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="62"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -4918,7 +4936,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="62"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -4935,7 +4953,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="62"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -4952,7 +4970,7 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="62"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -4969,7 +4987,7 @@
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="62"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -4986,7 +5004,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="62"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5003,7 +5021,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="62"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5020,7 +5038,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="62"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5037,7 +5055,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="62"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5054,7 +5072,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="62"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5071,7 +5089,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="62"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5088,7 +5106,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="62"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5105,7 +5123,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="62"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5122,7 +5140,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="62"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5139,7 +5157,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="62"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5156,7 +5174,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="62"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5173,7 +5191,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="62"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5190,7 +5208,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="62"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5207,7 +5225,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="62"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -5224,7 +5242,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="62"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -5241,7 +5259,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="B198" s="62"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5258,7 +5276,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="B199" s="62"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -5275,7 +5293,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="B200" s="62"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -5292,7 +5310,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="B201" s="62"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5309,7 +5327,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="B202" s="62"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -5326,7 +5344,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="62"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -5343,7 +5361,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="62"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5360,7 +5378,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="62"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5377,7 +5395,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="B206" s="62"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -5394,7 +5412,7 @@
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="B207" s="62"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5411,7 +5429,7 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="62"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -5428,7 +5446,7 @@
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="B209" s="62"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -5445,7 +5463,7 @@
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="62"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -5462,7 +5480,7 @@
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="62"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -5479,7 +5497,7 @@
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="B212" s="62"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5496,7 +5514,7 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="B213" s="62"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -5513,7 +5531,7 @@
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="62"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -5530,7 +5548,7 @@
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="62"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5547,7 +5565,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="62"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5564,7 +5582,7 @@
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="62"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -5581,7 +5599,7 @@
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="62"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -5598,7 +5616,7 @@
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="B219" s="62"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -5615,7 +5633,7 @@
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="62"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -5632,7 +5650,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="B221" s="62"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -5649,7 +5667,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+      <c r="B222" s="62"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -5666,7 +5684,7 @@
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+      <c r="B223" s="62"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -5683,7 +5701,7 @@
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="B224" s="62"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -5700,7 +5718,7 @@
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="62"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -5717,7 +5735,7 @@
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="62"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -5734,7 +5752,7 @@
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="B227" s="62"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -5751,7 +5769,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+      <c r="B228" s="62"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -5768,7 +5786,7 @@
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+      <c r="B229" s="62"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -5785,7 +5803,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="B230" s="62"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -5802,7 +5820,7 @@
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+      <c r="B231" s="62"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -5819,7 +5837,7 @@
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+      <c r="B232" s="62"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -5836,7 +5854,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="B233" s="62"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -5853,7 +5871,7 @@
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+      <c r="B234" s="62"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -5870,7 +5888,7 @@
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+      <c r="B235" s="62"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -5887,7 +5905,7 @@
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+      <c r="B236" s="62"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -5904,7 +5922,7 @@
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+      <c r="B237" s="62"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -5921,7 +5939,7 @@
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+      <c r="B238" s="62"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -5938,7 +5956,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+      <c r="B239" s="62"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -5955,7 +5973,7 @@
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+      <c r="B240" s="62"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -5972,7 +5990,7 @@
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+      <c r="B241" s="62"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -5989,7 +6007,7 @@
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+      <c r="B242" s="62"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6006,7 +6024,7 @@
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+      <c r="B243" s="62"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6023,7 +6041,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+      <c r="B244" s="62"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6040,7 +6058,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+      <c r="B245" s="62"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6057,7 +6075,7 @@
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+      <c r="B246" s="62"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6074,7 +6092,7 @@
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+      <c r="B247" s="62"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6091,7 +6109,7 @@
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+      <c r="B248" s="62"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6108,7 +6126,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+      <c r="B249" s="62"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6125,7 +6143,7 @@
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+      <c r="B250" s="62"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6142,7 +6160,7 @@
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+      <c r="B251" s="62"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6159,7 +6177,7 @@
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
+      <c r="B252" s="62"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -6176,7 +6194,7 @@
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+      <c r="B253" s="62"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6193,7 +6211,7 @@
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
+      <c r="B254" s="62"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6210,7 +6228,7 @@
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
+      <c r="B255" s="62"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -6227,7 +6245,7 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
+      <c r="B256" s="62"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6244,7 +6262,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
+      <c r="B257" s="62"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6261,7 +6279,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
+      <c r="B258" s="62"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -6278,7 +6296,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
+      <c r="B259" s="62"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6295,7 +6313,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
+      <c r="B260" s="62"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6312,7 +6330,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
+      <c r="B261" s="62"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -6329,7 +6347,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
+      <c r="B262" s="62"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6346,7 +6364,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
+      <c r="B263" s="62"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6363,7 +6381,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
+      <c r="B264" s="62"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -6380,7 +6398,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
+      <c r="B265" s="62"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6397,7 +6415,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
+      <c r="B266" s="62"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6414,7 +6432,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
+      <c r="B267" s="62"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -6431,7 +6449,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
+      <c r="B268" s="62"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6448,7 +6466,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
+      <c r="B269" s="62"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6465,7 +6483,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
+      <c r="B270" s="62"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -6482,7 +6500,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+      <c r="B271" s="62"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -6499,7 +6517,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
+      <c r="B272" s="62"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -6516,7 +6534,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
+      <c r="B273" s="62"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -6533,7 +6551,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
+      <c r="B274" s="62"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -6550,7 +6568,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+      <c r="B275" s="62"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -6567,7 +6585,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
+      <c r="B276" s="62"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -6584,7 +6602,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
+      <c r="B277" s="62"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -6601,7 +6619,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+      <c r="B278" s="62"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -6618,7 +6636,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+      <c r="B279" s="62"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -6635,7 +6653,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+      <c r="B280" s="62"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -6652,7 +6670,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
+      <c r="B281" s="62"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -6669,7 +6687,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+      <c r="B282" s="62"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -6686,7 +6704,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+      <c r="B283" s="62"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -6703,7 +6721,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+      <c r="B284" s="62"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -6720,7 +6738,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
+      <c r="B285" s="62"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -6737,7 +6755,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+      <c r="B286" s="62"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -6754,7 +6772,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+      <c r="B287" s="62"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -6771,7 +6789,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+      <c r="B288" s="62"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -6788,7 +6806,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
+      <c r="B289" s="62"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -6805,7 +6823,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
+      <c r="B290" s="62"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -6822,7 +6840,7 @@
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
+      <c r="B291" s="62"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -6839,7 +6857,7 @@
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
+      <c r="B292" s="62"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -6856,7 +6874,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+      <c r="B293" s="62"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -6873,7 +6891,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
+      <c r="B294" s="62"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -6890,7 +6908,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
+      <c r="B295" s="62"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -6907,7 +6925,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
+      <c r="B296" s="62"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -6924,7 +6942,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
+      <c r="B297" s="62"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -6941,7 +6959,7 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
+      <c r="B298" s="62"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -6958,7 +6976,7 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
+      <c r="B299" s="62"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -6975,7 +6993,7 @@
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
+      <c r="B300" s="62"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -7012,15 +7030,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="8"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="64" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -7034,7 +7052,7 @@
       <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="65" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -7051,851 +7069,839 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="72">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="75">
+        <v>4</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="66">
+        <v>43094</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19">
-        <v>43094</v>
-      </c>
-      <c r="D2" s="62" t="s">
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="76"/>
+      <c r="B3" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="66">
+        <v>43102</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="73"/>
-      <c r="B3" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="19">
-        <v>43097</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73"/>
-      <c r="B4" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="19">
-        <v>43102</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>57</v>
+      <c r="A4" s="76"/>
+      <c r="B4" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="66">
+        <v>43114</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73"/>
-      <c r="B5" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="19">
-        <v>43114</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>71</v>
-      </c>
+      <c r="A5" s="76"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="73"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="73"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="74"/>
+    <row r="13" spans="1:7" hidden="1">
+      <c r="A13" s="77"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="73"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="73"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="73"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="73"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="73"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="73"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="73"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="73"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="73"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="74"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="72"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="73"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="73"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="73"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="73"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="73"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="73"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="13"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="73"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="73"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="73"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="73"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="13"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="73"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="73"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="13"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="74"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="72"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="73"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="73"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="13"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="73"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="13"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="73"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="73"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="13"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="73"/>
+      <c r="A48" s="76"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="13"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="73"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="13"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="73"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="13"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="73"/>
+      <c r="A51" s="76"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="13"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="73"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="13"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="73"/>
+      <c r="A53" s="76"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="13"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="73"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="13"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="73"/>
+      <c r="A55" s="76"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="13"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="74"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="72"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="73"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="73"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="17"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="14.25">
-      <c r="A60" s="73"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="73"/>
+      <c r="A61" s="76"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="73"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="73"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="73"/>
+      <c r="A64" s="76"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="73"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="73"/>
+      <c r="A66" s="76"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="13"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="73"/>
+      <c r="A67" s="76"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="13"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="74"/>
+      <c r="A68" s="77"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="13"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="72"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="17"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" ht="14.25">
-      <c r="A70" s="73"/>
+      <c r="A70" s="76"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="14.25">
-      <c r="A71" s="73"/>
+      <c r="A71" s="76"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="17"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="14.25">
-      <c r="A72" s="73"/>
+      <c r="A72" s="76"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="73"/>
+      <c r="A73" s="76"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="13"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="73"/>
+      <c r="A74" s="76"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="73"/>
+      <c r="A75" s="76"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="73"/>
+      <c r="A76" s="76"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="13"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="73"/>
+      <c r="A77" s="76"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="13"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="73"/>
+      <c r="A78" s="76"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="13"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="73"/>
+      <c r="A79" s="76"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="13"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="74"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="13"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" ht="14.25">
-      <c r="A81" s="73"/>
+      <c r="A81" s="76"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="17"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" ht="14.25">
-      <c r="A82" s="73"/>
+      <c r="A82" s="76"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="17"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="73"/>
+      <c r="A83" s="76"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="13"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="73"/>
+      <c r="A84" s="76"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="13"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="73"/>
+      <c r="A85" s="76"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="13"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="73"/>
+      <c r="A86" s="76"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="13"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="73"/>
+      <c r="A87" s="76"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="13"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="73"/>
+      <c r="A88" s="76"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="13"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="73"/>
+      <c r="A89" s="76"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="C89" s="66"/>
       <c r="D89" s="13"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="74"/>
+      <c r="A90" s="77"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="13"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
@@ -7961,28 +7967,28 @@
       <c r="A2" s="5">
         <v>12</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>63</v>
+      <c r="B2" s="59" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="6">
         <v>43086</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>64</v>
+      <c r="D2" s="59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14">
         <v>12</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="65">
+      <c r="B3" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="61">
         <v>43092</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>65</v>
+      <c r="D3" s="60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FZQ\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -250,35 +255,137 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅掌门重庆老火锅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>方兆强</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州存誉国际大饭店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宴会厅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>周女士</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>又卷烧饼宝应时代国际店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>店铺装修中</t>
+    <t>徐雷</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>连锁</t>
+    <t>老板</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>崔冰冰</t>
+    <t>花食间花艺培训</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花食间花艺</t>
   </si>
   <si>
     <t>南京</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>锅掌门重庆老火锅</t>
+    <t>花食间花艺</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>方兆强</t>
+    <t>甘总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>胡总</t>
+    <t>新沂香天下餐饮管理有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新沂香天下火锅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>香天下火锅新沂店</t>
+  </si>
+  <si>
+    <t>陈总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">总监 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州五十岚餐饮管理有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岚润辉店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>米集盒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>13951664736‬</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>何总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -286,34 +393,30 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>常州存誉国际大饭店</t>
+    <t>仙木西丁新疆风味餐厅</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>宴会厅</t>
+    <t>无锡</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>常州</t>
+    <t>仙木西丁无锡店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>周女士</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务</t>
+    <t>孔总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1080,6 +1186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1342,30 +1451,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="8" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.90625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" style="23" customWidth="1"/>
     <col min="11" max="11" width="16" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1491,7 @@
       <c r="L1" s="70"/>
       <c r="M1" s="72"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <v>12</v>
       </c>
@@ -1465,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" s="30">
         <v>52</v>
@@ -1505,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" s="30">
         <v>53</v>
@@ -1545,7 +1654,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -1563,7 +1672,7 @@
       <c r="L6" s="48"/>
       <c r="M6" s="49"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
@@ -1581,7 +1690,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="49"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" thickBot="1">
+    <row r="8" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
@@ -1599,7 +1708,7 @@
       <c r="L8" s="53"/>
       <c r="M8" s="54"/>
     </row>
-    <row r="9" spans="1:13" ht="0.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="73">
         <v>1</v>
       </c>
@@ -1616,7 +1725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
       <c r="B10" s="30">
         <v>1</v>
@@ -1656,7 +1765,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="30">
         <v>2</v>
@@ -1695,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="73"/>
       <c r="B12" s="30">
         <v>3</v>
@@ -1734,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" s="30">
         <v>4</v>
@@ -1774,7 +1883,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74"/>
       <c r="B14" s="30">
         <v>5</v>
@@ -1814,42 +1923,246 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30">
+        <v>6</v>
+      </c>
+      <c r="C15" s="31">
+        <v>7</v>
+      </c>
+      <c r="D15" s="32">
+        <v>2</v>
+      </c>
+      <c r="E15" s="32">
+        <v>5</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33">
+        <f>F15-G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="45">
+        <v>1</v>
+      </c>
+      <c r="J15" s="46">
+        <f>I15/L15*100%</f>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="47">
+        <f>C15+G15</f>
+        <v>7</v>
+      </c>
+      <c r="L15" s="48">
+        <f>D15+G15</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="49">
+        <f>L15/K15*100%</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="30">
+        <v>7</v>
+      </c>
+      <c r="C16" s="31">
+        <v>5</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>5</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33">
+        <f t="shared" ref="H16:H18" si="11">F16-G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="46">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <f t="shared" ref="K16:K18" si="12">C16+G16</f>
+        <v>5</v>
+      </c>
+      <c r="L16" s="48">
+        <f t="shared" ref="L16:L18" si="13">D16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="49">
+        <f t="shared" ref="M16:M18" si="14">L16/K16*100%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="30">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31">
+        <v>6</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>6</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>0</v>
+      </c>
+      <c r="J17" s="46">
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="L17" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="30">
+        <v>9</v>
+      </c>
+      <c r="C18" s="31">
+        <v>6</v>
+      </c>
+      <c r="D18" s="32">
+        <v>3</v>
+      </c>
+      <c r="E18" s="32">
+        <v>3</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
+        <v>1</v>
+      </c>
+      <c r="J18" s="46">
+        <f t="shared" ref="J18" si="15">I18/L18*100%</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K18" s="47">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="48">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M18" s="49">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="30">
+        <v>10</v>
+      </c>
+      <c r="C19" s="31">
+        <v>4</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <v>3</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33">
+        <f t="shared" ref="H19" si="16">F19-G19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="45">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <f t="shared" ref="J19" si="17">I19/L19*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="47">
+        <f t="shared" ref="K19" si="18">C19+G19</f>
+        <v>4</v>
+      </c>
+      <c r="L19" s="48">
+        <f t="shared" ref="L19" si="19">D19+G19</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="49">
+        <f t="shared" ref="M19" si="20">L19/K19*100%</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="74"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="27">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -1896,7 +2209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1943,7 +2256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1990,7 +2303,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2037,7 +2350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2048,34 +2361,34 @@
         <v>62</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N5" s="1">
         <v>15605155898</v>
@@ -2084,7 +2397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2095,34 +2408,34 @@
         <v>62</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N6" s="1">
         <v>18796963653</v>
@@ -2131,109 +2444,289 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="62">
+        <v>43132</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1">
+        <v>76128399</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="14">
+        <v>13773320055</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="62">
+        <v>43133</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="14">
+        <v>76129828</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="14">
+        <v>18952027077</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="62">
+        <v>43140</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="14">
+        <v>76130623</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="14">
+        <v>18768124846</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62">
+        <v>43144</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="14">
+        <v>76118602</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="55">
+        <v>18762310760</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="62">
+        <v>43157</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="14">
+        <v>76131263</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="62">
+        <v>43158</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="14">
+        <v>76132273</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="78">
+        <v>13814504030</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="62"/>
       <c r="C13" s="1"/>
@@ -2250,7 +2743,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="62"/>
       <c r="C14" s="1"/>
@@ -2267,7 +2760,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="62"/>
       <c r="C15" s="1"/>
@@ -2284,7 +2777,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="62"/>
       <c r="C16" s="1"/>
@@ -2301,7 +2794,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="62"/>
       <c r="C17" s="1"/>
@@ -2318,7 +2811,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="62"/>
       <c r="C18" s="1"/>
@@ -2335,7 +2828,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="62"/>
       <c r="C19" s="1"/>
@@ -2352,7 +2845,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="62"/>
       <c r="C20" s="1"/>
@@ -2369,7 +2862,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="62"/>
       <c r="C21" s="1"/>
@@ -2386,7 +2879,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="62"/>
       <c r="C22" s="1"/>
@@ -2403,7 +2896,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="62"/>
       <c r="C23" s="1"/>
@@ -2420,7 +2913,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="62"/>
       <c r="C24" s="1"/>
@@ -2437,7 +2930,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="62"/>
       <c r="C25" s="1"/>
@@ -2454,7 +2947,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="62"/>
       <c r="C26" s="1"/>
@@ -2471,7 +2964,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="62"/>
       <c r="C27" s="1"/>
@@ -2488,7 +2981,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="62"/>
       <c r="C28" s="1"/>
@@ -2505,7 +2998,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="62"/>
       <c r="C29" s="1"/>
@@ -2522,7 +3015,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="62"/>
       <c r="C30" s="1"/>
@@ -2539,7 +3032,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="62"/>
       <c r="C31" s="1"/>
@@ -2556,7 +3049,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="62"/>
       <c r="C32" s="1"/>
@@ -2573,7 +3066,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="62"/>
       <c r="C33" s="1"/>
@@ -2590,7 +3083,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="62"/>
       <c r="C34" s="1"/>
@@ -2607,7 +3100,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="62"/>
       <c r="C35" s="1"/>
@@ -2624,7 +3117,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="62"/>
       <c r="C36" s="1"/>
@@ -2641,7 +3134,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="62"/>
       <c r="C37" s="1"/>
@@ -2658,7 +3151,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="62"/>
       <c r="C38" s="1"/>
@@ -2675,7 +3168,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="62"/>
       <c r="C39" s="1"/>
@@ -2692,7 +3185,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="62"/>
       <c r="C40" s="1"/>
@@ -2709,7 +3202,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="62"/>
       <c r="C41" s="1"/>
@@ -2726,7 +3219,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="62"/>
       <c r="C42" s="1"/>
@@ -2743,7 +3236,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="62"/>
       <c r="C43" s="1"/>
@@ -2760,7 +3253,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="62"/>
       <c r="C44" s="1"/>
@@ -2777,7 +3270,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="62"/>
       <c r="C45" s="1"/>
@@ -2794,7 +3287,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="62"/>
       <c r="C46" s="1"/>
@@ -2811,7 +3304,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="62"/>
       <c r="C47" s="1"/>
@@ -2828,7 +3321,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="62"/>
       <c r="C48" s="1"/>
@@ -2845,7 +3338,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="62"/>
       <c r="C49" s="1"/>
@@ -2862,7 +3355,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="62"/>
       <c r="C50" s="1"/>
@@ -2879,7 +3372,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="62"/>
       <c r="C51" s="1"/>
@@ -2896,7 +3389,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="62"/>
       <c r="C52" s="1"/>
@@ -2913,7 +3406,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="62"/>
       <c r="C53" s="1"/>
@@ -2930,7 +3423,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="62"/>
       <c r="C54" s="1"/>
@@ -2947,7 +3440,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="62"/>
       <c r="C55" s="1"/>
@@ -2964,7 +3457,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="62"/>
       <c r="C56" s="1"/>
@@ -2981,7 +3474,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="62"/>
       <c r="C57" s="1"/>
@@ -2998,7 +3491,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="62"/>
       <c r="C58" s="1"/>
@@ -3015,7 +3508,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="62"/>
       <c r="C59" s="1"/>
@@ -3032,7 +3525,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="62"/>
       <c r="C60" s="1"/>
@@ -3049,7 +3542,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="62"/>
       <c r="C61" s="1"/>
@@ -3066,7 +3559,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="62"/>
       <c r="C62" s="1"/>
@@ -3083,7 +3576,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="62"/>
       <c r="C63" s="1"/>
@@ -3100,7 +3593,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="62"/>
       <c r="C64" s="1"/>
@@ -3117,7 +3610,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="62"/>
       <c r="C65" s="1"/>
@@ -3134,7 +3627,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="62"/>
       <c r="C66" s="1"/>
@@ -3151,7 +3644,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="62"/>
       <c r="C67" s="1"/>
@@ -3168,7 +3661,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="62"/>
       <c r="C68" s="1"/>
@@ -3185,7 +3678,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="62"/>
       <c r="C69" s="1"/>
@@ -3202,7 +3695,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="62"/>
       <c r="C70" s="1"/>
@@ -3219,7 +3712,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="62"/>
       <c r="C71" s="1"/>
@@ -3236,7 +3729,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="62"/>
       <c r="C72" s="1"/>
@@ -3253,7 +3746,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="62"/>
       <c r="C73" s="1"/>
@@ -3270,7 +3763,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="62"/>
       <c r="C74" s="1"/>
@@ -3287,7 +3780,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="62"/>
       <c r="C75" s="1"/>
@@ -3304,7 +3797,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="62"/>
       <c r="C76" s="1"/>
@@ -3321,7 +3814,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="62"/>
       <c r="C77" s="1"/>
@@ -3338,7 +3831,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="62"/>
       <c r="C78" s="1"/>
@@ -3355,7 +3848,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="62"/>
       <c r="C79" s="1"/>
@@ -3372,7 +3865,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="62"/>
       <c r="C80" s="1"/>
@@ -3389,7 +3882,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="62"/>
       <c r="C81" s="1"/>
@@ -3406,7 +3899,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="62"/>
       <c r="C82" s="1"/>
@@ -3423,7 +3916,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="62"/>
       <c r="C83" s="1"/>
@@ -3440,7 +3933,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="62"/>
       <c r="C84" s="1"/>
@@ -3457,7 +3950,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="62"/>
       <c r="C85" s="1"/>
@@ -3474,7 +3967,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="62"/>
       <c r="C86" s="1"/>
@@ -3491,7 +3984,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="62"/>
       <c r="C87" s="1"/>
@@ -3508,7 +4001,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="62"/>
       <c r="C88" s="1"/>
@@ -3525,7 +4018,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="62"/>
       <c r="C89" s="1"/>
@@ -3542,7 +4035,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="62"/>
       <c r="C90" s="1"/>
@@ -3559,7 +4052,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="62"/>
       <c r="C91" s="1"/>
@@ -3576,7 +4069,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="62"/>
       <c r="C92" s="1"/>
@@ -3593,7 +4086,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="62"/>
       <c r="C93" s="1"/>
@@ -3610,7 +4103,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="62"/>
       <c r="C94" s="1"/>
@@ -3627,7 +4120,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="62"/>
       <c r="C95" s="1"/>
@@ -3644,7 +4137,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="62"/>
       <c r="C96" s="1"/>
@@ -3661,7 +4154,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="62"/>
       <c r="C97" s="1"/>
@@ -3678,7 +4171,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="62"/>
       <c r="C98" s="1"/>
@@ -3695,7 +4188,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="62"/>
       <c r="C99" s="1"/>
@@ -3712,7 +4205,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="62"/>
       <c r="C100" s="1"/>
@@ -3729,7 +4222,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="62"/>
       <c r="C101" s="1"/>
@@ -3746,7 +4239,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="62"/>
       <c r="C102" s="1"/>
@@ -3763,7 +4256,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="62"/>
       <c r="C103" s="1"/>
@@ -3780,7 +4273,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="62"/>
       <c r="C104" s="1"/>
@@ -3797,7 +4290,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="62"/>
       <c r="C105" s="1"/>
@@ -3814,7 +4307,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="62"/>
       <c r="C106" s="1"/>
@@ -3831,7 +4324,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="62"/>
       <c r="C107" s="1"/>
@@ -3848,7 +4341,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="62"/>
       <c r="C108" s="1"/>
@@ -3865,7 +4358,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="62"/>
       <c r="C109" s="1"/>
@@ -3882,7 +4375,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="62"/>
       <c r="C110" s="1"/>
@@ -3899,7 +4392,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="62"/>
       <c r="C111" s="1"/>
@@ -3916,7 +4409,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="62"/>
       <c r="C112" s="1"/>
@@ -3933,7 +4426,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="62"/>
       <c r="C113" s="1"/>
@@ -3950,7 +4443,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="62"/>
       <c r="C114" s="1"/>
@@ -3967,7 +4460,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="62"/>
       <c r="C115" s="1"/>
@@ -3984,7 +4477,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="62"/>
       <c r="C116" s="1"/>
@@ -4001,7 +4494,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="62"/>
       <c r="C117" s="1"/>
@@ -4018,7 +4511,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="62"/>
       <c r="C118" s="1"/>
@@ -4035,7 +4528,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="62"/>
       <c r="C119" s="1"/>
@@ -4052,7 +4545,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="62"/>
       <c r="C120" s="1"/>
@@ -4069,7 +4562,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="62"/>
       <c r="C121" s="1"/>
@@ -4086,7 +4579,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="62"/>
       <c r="C122" s="1"/>
@@ -4103,7 +4596,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="62"/>
       <c r="C123" s="1"/>
@@ -4120,7 +4613,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="62"/>
       <c r="C124" s="1"/>
@@ -4137,7 +4630,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="62"/>
       <c r="C125" s="1"/>
@@ -4154,7 +4647,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="62"/>
       <c r="C126" s="1"/>
@@ -4171,7 +4664,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="62"/>
       <c r="C127" s="1"/>
@@ -4188,7 +4681,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="62"/>
       <c r="C128" s="1"/>
@@ -4205,7 +4698,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="62"/>
       <c r="C129" s="1"/>
@@ -4222,7 +4715,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="62"/>
       <c r="C130" s="1"/>
@@ -4239,7 +4732,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="62"/>
       <c r="C131" s="1"/>
@@ -4256,7 +4749,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="62"/>
       <c r="C132" s="1"/>
@@ -4273,7 +4766,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="62"/>
       <c r="C133" s="1"/>
@@ -4290,7 +4783,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="62"/>
       <c r="C134" s="1"/>
@@ -4307,7 +4800,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="62"/>
       <c r="C135" s="1"/>
@@ -4324,7 +4817,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="62"/>
       <c r="C136" s="1"/>
@@ -4341,7 +4834,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="62"/>
       <c r="C137" s="1"/>
@@ -4358,7 +4851,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="62"/>
       <c r="C138" s="1"/>
@@ -4375,7 +4868,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="62"/>
       <c r="C139" s="1"/>
@@ -4392,7 +4885,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="62"/>
       <c r="C140" s="1"/>
@@ -4409,7 +4902,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="62"/>
       <c r="C141" s="1"/>
@@ -4426,7 +4919,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="62"/>
       <c r="C142" s="1"/>
@@ -4443,7 +4936,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="62"/>
       <c r="C143" s="1"/>
@@ -4460,7 +4953,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="62"/>
       <c r="C144" s="1"/>
@@ -4477,7 +4970,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="62"/>
       <c r="C145" s="1"/>
@@ -4494,7 +4987,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="62"/>
       <c r="C146" s="1"/>
@@ -4511,7 +5004,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="62"/>
       <c r="C147" s="1"/>
@@ -4528,7 +5021,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="62"/>
       <c r="C148" s="1"/>
@@ -4545,7 +5038,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="62"/>
       <c r="C149" s="1"/>
@@ -4562,7 +5055,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="62"/>
       <c r="C150" s="1"/>
@@ -4579,7 +5072,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="62"/>
       <c r="C151" s="1"/>
@@ -4596,7 +5089,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="62"/>
       <c r="C152" s="1"/>
@@ -4613,7 +5106,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="62"/>
       <c r="C153" s="1"/>
@@ -4630,7 +5123,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="62"/>
       <c r="C154" s="1"/>
@@ -4647,7 +5140,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="62"/>
       <c r="C155" s="1"/>
@@ -4664,7 +5157,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="62"/>
       <c r="C156" s="1"/>
@@ -4681,7 +5174,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="62"/>
       <c r="C157" s="1"/>
@@ -4698,7 +5191,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="62"/>
       <c r="C158" s="1"/>
@@ -4715,7 +5208,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="62"/>
       <c r="C159" s="1"/>
@@ -4732,7 +5225,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="62"/>
       <c r="C160" s="1"/>
@@ -4749,7 +5242,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="62"/>
       <c r="C161" s="1"/>
@@ -4766,7 +5259,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="62"/>
       <c r="C162" s="1"/>
@@ -4783,7 +5276,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="62"/>
       <c r="C163" s="1"/>
@@ -4800,7 +5293,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="62"/>
       <c r="C164" s="1"/>
@@ -4817,7 +5310,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="62"/>
       <c r="C165" s="1"/>
@@ -4834,7 +5327,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="62"/>
       <c r="C166" s="1"/>
@@ -4851,7 +5344,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="62"/>
       <c r="C167" s="1"/>
@@ -4868,7 +5361,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="62"/>
       <c r="C168" s="1"/>
@@ -4885,7 +5378,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="62"/>
       <c r="C169" s="1"/>
@@ -4902,7 +5395,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="62"/>
       <c r="C170" s="1"/>
@@ -4919,7 +5412,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="62"/>
       <c r="C171" s="1"/>
@@ -4936,7 +5429,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="62"/>
       <c r="C172" s="1"/>
@@ -4953,7 +5446,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="62"/>
       <c r="C173" s="1"/>
@@ -4970,7 +5463,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="62"/>
       <c r="C174" s="1"/>
@@ -4987,7 +5480,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="62"/>
       <c r="C175" s="1"/>
@@ -5004,7 +5497,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="62"/>
       <c r="C176" s="1"/>
@@ -5021,7 +5514,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="62"/>
       <c r="C177" s="1"/>
@@ -5038,7 +5531,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="62"/>
       <c r="C178" s="1"/>
@@ -5055,7 +5548,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="62"/>
       <c r="C179" s="1"/>
@@ -5072,7 +5565,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="62"/>
       <c r="C180" s="1"/>
@@ -5089,7 +5582,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="62"/>
       <c r="C181" s="1"/>
@@ -5106,7 +5599,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="62"/>
       <c r="C182" s="1"/>
@@ -5123,7 +5616,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="62"/>
       <c r="C183" s="1"/>
@@ -5140,7 +5633,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="62"/>
       <c r="C184" s="1"/>
@@ -5157,7 +5650,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="62"/>
       <c r="C185" s="1"/>
@@ -5174,7 +5667,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="62"/>
       <c r="C186" s="1"/>
@@ -5191,7 +5684,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="62"/>
       <c r="C187" s="1"/>
@@ -5208,7 +5701,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="62"/>
       <c r="C188" s="1"/>
@@ -5225,7 +5718,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="62"/>
       <c r="C189" s="1"/>
@@ -5242,7 +5735,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="62"/>
       <c r="C190" s="1"/>
@@ -5259,7 +5752,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="62"/>
       <c r="C191" s="1"/>
@@ -5276,7 +5769,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="62"/>
       <c r="C192" s="1"/>
@@ -5293,7 +5786,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="62"/>
       <c r="C193" s="1"/>
@@ -5310,7 +5803,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="62"/>
       <c r="C194" s="1"/>
@@ -5327,7 +5820,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="62"/>
       <c r="C195" s="1"/>
@@ -5344,7 +5837,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="62"/>
       <c r="C196" s="1"/>
@@ -5361,7 +5854,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="62"/>
       <c r="C197" s="1"/>
@@ -5378,7 +5871,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="62"/>
       <c r="C198" s="1"/>
@@ -5395,7 +5888,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="62"/>
       <c r="C199" s="1"/>
@@ -5412,7 +5905,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="62"/>
       <c r="C200" s="1"/>
@@ -5429,7 +5922,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="62"/>
       <c r="C201" s="1"/>
@@ -5446,7 +5939,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="62"/>
       <c r="C202" s="1"/>
@@ -5463,7 +5956,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="62"/>
       <c r="C203" s="1"/>
@@ -5480,7 +5973,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="62"/>
       <c r="C204" s="1"/>
@@ -5497,7 +5990,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="62"/>
       <c r="C205" s="1"/>
@@ -5514,7 +6007,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="62"/>
       <c r="C206" s="1"/>
@@ -5531,7 +6024,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="62"/>
       <c r="C207" s="1"/>
@@ -5548,7 +6041,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="62"/>
       <c r="C208" s="1"/>
@@ -5565,7 +6058,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="62"/>
       <c r="C209" s="1"/>
@@ -5582,7 +6075,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="62"/>
       <c r="C210" s="1"/>
@@ -5599,7 +6092,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="62"/>
       <c r="C211" s="1"/>
@@ -5616,7 +6109,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="62"/>
       <c r="C212" s="1"/>
@@ -5633,7 +6126,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="62"/>
       <c r="C213" s="1"/>
@@ -5650,7 +6143,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="62"/>
       <c r="C214" s="1"/>
@@ -5667,7 +6160,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="62"/>
       <c r="C215" s="1"/>
@@ -5684,7 +6177,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="62"/>
       <c r="C216" s="1"/>
@@ -5701,7 +6194,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="62"/>
       <c r="C217" s="1"/>
@@ -5718,7 +6211,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="62"/>
       <c r="C218" s="1"/>
@@ -5735,7 +6228,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="62"/>
       <c r="C219" s="1"/>
@@ -5752,7 +6245,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="62"/>
       <c r="C220" s="1"/>
@@ -5769,7 +6262,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="62"/>
       <c r="C221" s="1"/>
@@ -5786,7 +6279,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="62"/>
       <c r="C222" s="1"/>
@@ -5803,7 +6296,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="62"/>
       <c r="C223" s="1"/>
@@ -5820,7 +6313,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="62"/>
       <c r="C224" s="1"/>
@@ -5837,7 +6330,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="62"/>
       <c r="C225" s="1"/>
@@ -5854,7 +6347,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="62"/>
       <c r="C226" s="1"/>
@@ -5871,7 +6364,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="62"/>
       <c r="C227" s="1"/>
@@ -5888,7 +6381,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="62"/>
       <c r="C228" s="1"/>
@@ -5905,7 +6398,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="62"/>
       <c r="C229" s="1"/>
@@ -5922,7 +6415,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="62"/>
       <c r="C230" s="1"/>
@@ -5939,7 +6432,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="62"/>
       <c r="C231" s="1"/>
@@ -5956,7 +6449,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="62"/>
       <c r="C232" s="1"/>
@@ -5973,7 +6466,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="62"/>
       <c r="C233" s="1"/>
@@ -5990,7 +6483,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="62"/>
       <c r="C234" s="1"/>
@@ -6007,7 +6500,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="62"/>
       <c r="C235" s="1"/>
@@ -6024,7 +6517,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="62"/>
       <c r="C236" s="1"/>
@@ -6041,7 +6534,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="62"/>
       <c r="C237" s="1"/>
@@ -6058,7 +6551,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="62"/>
       <c r="C238" s="1"/>
@@ -6075,7 +6568,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="62"/>
       <c r="C239" s="1"/>
@@ -6092,7 +6585,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="62"/>
       <c r="C240" s="1"/>
@@ -6109,7 +6602,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="62"/>
       <c r="C241" s="1"/>
@@ -6126,7 +6619,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="62"/>
       <c r="C242" s="1"/>
@@ -6143,7 +6636,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="62"/>
       <c r="C243" s="1"/>
@@ -6160,7 +6653,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="62"/>
       <c r="C244" s="1"/>
@@ -6177,7 +6670,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="62"/>
       <c r="C245" s="1"/>
@@ -6194,7 +6687,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="62"/>
       <c r="C246" s="1"/>
@@ -6211,7 +6704,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="62"/>
       <c r="C247" s="1"/>
@@ -6228,7 +6721,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="62"/>
       <c r="C248" s="1"/>
@@ -6245,7 +6738,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="62"/>
       <c r="C249" s="1"/>
@@ -6262,7 +6755,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="62"/>
       <c r="C250" s="1"/>
@@ -6279,7 +6772,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="62"/>
       <c r="C251" s="1"/>
@@ -6296,7 +6789,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="62"/>
       <c r="C252" s="1"/>
@@ -6313,7 +6806,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="62"/>
       <c r="C253" s="1"/>
@@ -6330,7 +6823,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="62"/>
       <c r="C254" s="1"/>
@@ -6347,7 +6840,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="62"/>
       <c r="C255" s="1"/>
@@ -6364,7 +6857,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="62"/>
       <c r="C256" s="1"/>
@@ -6381,7 +6874,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="62"/>
       <c r="C257" s="1"/>
@@ -6398,7 +6891,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="62"/>
       <c r="C258" s="1"/>
@@ -6415,7 +6908,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="62"/>
       <c r="C259" s="1"/>
@@ -6432,7 +6925,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="62"/>
       <c r="C260" s="1"/>
@@ -6449,7 +6942,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="62"/>
       <c r="C261" s="1"/>
@@ -6466,7 +6959,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="62"/>
       <c r="C262" s="1"/>
@@ -6483,7 +6976,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="62"/>
       <c r="C263" s="1"/>
@@ -6500,7 +6993,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="62"/>
       <c r="C264" s="1"/>
@@ -6517,7 +7010,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="62"/>
       <c r="C265" s="1"/>
@@ -6534,7 +7027,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="62"/>
       <c r="C266" s="1"/>
@@ -6551,7 +7044,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="62"/>
       <c r="C267" s="1"/>
@@ -6568,7 +7061,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="62"/>
       <c r="C268" s="1"/>
@@ -6585,7 +7078,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="62"/>
       <c r="C269" s="1"/>
@@ -6602,7 +7095,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="62"/>
       <c r="C270" s="1"/>
@@ -6619,7 +7112,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="62"/>
       <c r="C271" s="1"/>
@@ -6636,7 +7129,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="62"/>
       <c r="C272" s="1"/>
@@ -6653,7 +7146,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="62"/>
       <c r="C273" s="1"/>
@@ -6670,7 +7163,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="62"/>
       <c r="C274" s="1"/>
@@ -6687,7 +7180,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="62"/>
       <c r="C275" s="1"/>
@@ -6704,7 +7197,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="62"/>
       <c r="C276" s="1"/>
@@ -6721,7 +7214,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="62"/>
       <c r="C277" s="1"/>
@@ -6738,7 +7231,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="62"/>
       <c r="C278" s="1"/>
@@ -6755,7 +7248,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="62"/>
       <c r="C279" s="1"/>
@@ -6772,7 +7265,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="62"/>
       <c r="C280" s="1"/>
@@ -6789,7 +7282,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="62"/>
       <c r="C281" s="1"/>
@@ -6806,7 +7299,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="62"/>
       <c r="C282" s="1"/>
@@ -6823,7 +7316,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="62"/>
       <c r="C283" s="1"/>
@@ -6840,7 +7333,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="62"/>
       <c r="C284" s="1"/>
@@ -6857,7 +7350,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="62"/>
       <c r="C285" s="1"/>
@@ -6874,7 +7367,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="62"/>
       <c r="C286" s="1"/>
@@ -6891,7 +7384,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="62"/>
       <c r="C287" s="1"/>
@@ -6908,7 +7401,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="62"/>
       <c r="C288" s="1"/>
@@ -6925,7 +7418,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="62"/>
       <c r="C289" s="1"/>
@@ -6942,7 +7435,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="62"/>
       <c r="C290" s="1"/>
@@ -6959,7 +7452,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="62"/>
       <c r="C291" s="1"/>
@@ -6976,7 +7469,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="62"/>
       <c r="C292" s="1"/>
@@ -6993,7 +7486,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="62"/>
       <c r="C293" s="1"/>
@@ -7010,7 +7503,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="62"/>
       <c r="C294" s="1"/>
@@ -7027,7 +7520,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="62"/>
       <c r="C295" s="1"/>
@@ -7044,7 +7537,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="62"/>
       <c r="C296" s="1"/>
@@ -7061,7 +7554,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="62"/>
       <c r="C297" s="1"/>
@@ -7078,7 +7571,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="62"/>
       <c r="C298" s="1"/>
@@ -7095,7 +7588,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="62"/>
       <c r="C299" s="1"/>
@@ -7112,7 +7605,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="62"/>
       <c r="C300" s="1"/>
@@ -7132,41 +7625,41 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="8"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="64" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="8"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -7189,9 +7682,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="75">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>52</v>
@@ -7212,7 +7705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
       <c r="B3" s="57" t="s">
         <v>61</v>
@@ -7233,28 +7726,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
-      <c r="B4" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="66">
-        <v>43124</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="57"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="57"/>
       <c r="C5" s="66"/>
@@ -7263,7 +7744,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="76"/>
       <c r="B6" s="12"/>
       <c r="C6" s="66"/>
@@ -7272,7 +7753,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="76"/>
       <c r="B7" s="12"/>
       <c r="C7" s="66"/>
@@ -7281,7 +7762,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
       <c r="B8" s="12"/>
       <c r="C8" s="66"/>
@@ -7290,7 +7771,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
       <c r="B9" s="12"/>
       <c r="C9" s="66"/>
@@ -7299,7 +7780,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
       <c r="B10" s="12"/>
       <c r="C10" s="66"/>
@@ -7308,7 +7789,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="12"/>
       <c r="C11" s="66"/>
@@ -7317,7 +7798,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="12"/>
       <c r="C12" s="66"/>
@@ -7326,7 +7807,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="77"/>
       <c r="B13" s="12"/>
       <c r="C13" s="66"/>
@@ -7335,7 +7816,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
       <c r="B14" s="15"/>
       <c r="C14" s="67"/>
@@ -7344,7 +7825,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="15"/>
       <c r="C15" s="68"/>
@@ -7353,7 +7834,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
       <c r="B16" s="12"/>
       <c r="C16" s="68"/>
@@ -7362,7 +7843,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="76"/>
       <c r="B17" s="12"/>
       <c r="C17" s="66"/>
@@ -7371,7 +7852,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="12"/>
       <c r="C18" s="66"/>
@@ -7380,7 +7861,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
       <c r="B19" s="12"/>
       <c r="C19" s="66"/>
@@ -7389,7 +7870,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="12"/>
       <c r="C20" s="66"/>
@@ -7398,7 +7879,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="12"/>
       <c r="C21" s="66"/>
@@ -7407,7 +7888,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="14"/>
       <c r="C22" s="62"/>
@@ -7416,7 +7897,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
       <c r="B23" s="14"/>
       <c r="C23" s="62"/>
@@ -7425,7 +7906,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="14"/>
       <c r="C24" s="62"/>
@@ -7434,7 +7915,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
       <c r="B25" s="14"/>
       <c r="C25" s="62"/>
@@ -7443,7 +7924,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="77"/>
       <c r="B26" s="14"/>
       <c r="C26" s="62"/>
@@ -7452,7 +7933,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="75"/>
       <c r="B27" s="15"/>
       <c r="C27" s="68"/>
@@ -7461,7 +7942,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
       <c r="B28" s="12"/>
       <c r="C28" s="68"/>
@@ -7470,7 +7951,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
       <c r="B29" s="12"/>
       <c r="C29" s="66"/>
@@ -7479,7 +7960,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
       <c r="B30" s="12"/>
       <c r="C30" s="66"/>
@@ -7488,7 +7969,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
       <c r="B31" s="14"/>
       <c r="C31" s="62"/>
@@ -7497,7 +7978,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="76"/>
       <c r="B32" s="14"/>
       <c r="C32" s="62"/>
@@ -7506,7 +7987,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="76"/>
       <c r="B33" s="14"/>
       <c r="C33" s="62"/>
@@ -7515,7 +7996,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="76"/>
       <c r="B34" s="12"/>
       <c r="C34" s="66"/>
@@ -7524,7 +8005,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="76"/>
       <c r="B35" s="12"/>
       <c r="C35" s="66"/>
@@ -7533,7 +8014,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="76"/>
       <c r="B36" s="14"/>
       <c r="C36" s="62"/>
@@ -7542,7 +8023,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="76"/>
       <c r="B37" s="14"/>
       <c r="C37" s="62"/>
@@ -7551,7 +8032,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="76"/>
       <c r="B38" s="14"/>
       <c r="C38" s="62"/>
@@ -7560,7 +8041,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="76"/>
       <c r="B39" s="14"/>
       <c r="C39" s="62"/>
@@ -7569,7 +8050,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="76"/>
       <c r="B40" s="14"/>
       <c r="C40" s="62"/>
@@ -7578,7 +8059,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="77"/>
       <c r="B41" s="14"/>
       <c r="C41" s="62"/>
@@ -7587,7 +8068,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" ht="14.25">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="75"/>
       <c r="B42" s="12"/>
       <c r="C42" s="68"/>
@@ -7596,7 +8077,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="14.25">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="76"/>
       <c r="B43" s="12"/>
       <c r="C43" s="66"/>
@@ -7605,7 +8086,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="76"/>
       <c r="B44" s="12"/>
       <c r="C44" s="66"/>
@@ -7614,7 +8095,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="76"/>
       <c r="B45" s="12"/>
       <c r="C45" s="66"/>
@@ -7623,7 +8104,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="76"/>
       <c r="B46" s="12"/>
       <c r="C46" s="66"/>
@@ -7632,7 +8113,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="76"/>
       <c r="B47" s="12"/>
       <c r="C47" s="66"/>
@@ -7641,7 +8122,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
       <c r="B48" s="12"/>
       <c r="C48" s="66"/>
@@ -7650,7 +8131,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
       <c r="B49" s="12"/>
       <c r="C49" s="66"/>
@@ -7659,7 +8140,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
       <c r="B50" s="14"/>
       <c r="C50" s="62"/>
@@ -7668,7 +8149,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="14"/>
       <c r="C51" s="62"/>
@@ -7677,7 +8158,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
       <c r="B52" s="14"/>
       <c r="C52" s="62"/>
@@ -7686,7 +8167,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="76"/>
       <c r="B53" s="14"/>
       <c r="C53" s="62"/>
@@ -7695,7 +8176,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="76"/>
       <c r="B54" s="14"/>
       <c r="C54" s="62"/>
@@ -7704,7 +8185,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="76"/>
       <c r="B55" s="14"/>
       <c r="C55" s="62"/>
@@ -7713,7 +8194,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="77"/>
       <c r="B56" s="12"/>
       <c r="C56" s="66"/>
@@ -7722,7 +8203,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="75"/>
       <c r="B57" s="12"/>
       <c r="C57" s="68"/>
@@ -7731,7 +8212,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="76"/>
       <c r="B58" s="12"/>
       <c r="C58" s="66"/>
@@ -7740,7 +8221,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="76"/>
       <c r="B59" s="12"/>
       <c r="C59" s="66"/>
@@ -7749,7 +8230,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="76"/>
       <c r="B60" s="12"/>
       <c r="C60" s="66"/>
@@ -7758,7 +8239,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="76"/>
       <c r="B61" s="12"/>
       <c r="C61" s="66"/>
@@ -7767,7 +8248,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="76"/>
       <c r="B62" s="12"/>
       <c r="C62" s="66"/>
@@ -7776,7 +8257,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="76"/>
       <c r="B63" s="12"/>
       <c r="C63" s="66"/>
@@ -7785,7 +8266,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="76"/>
       <c r="B64" s="12"/>
       <c r="C64" s="66"/>
@@ -7794,7 +8275,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="76"/>
       <c r="B65" s="12"/>
       <c r="C65" s="66"/>
@@ -7803,7 +8284,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="76"/>
       <c r="B66" s="12"/>
       <c r="C66" s="66"/>
@@ -7812,7 +8293,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="76"/>
       <c r="B67" s="12"/>
       <c r="C67" s="66"/>
@@ -7821,7 +8302,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="77"/>
       <c r="B68" s="12"/>
       <c r="C68" s="66"/>
@@ -7830,7 +8311,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="1:7" ht="14.25">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="75"/>
       <c r="B69" s="12"/>
       <c r="C69" s="68"/>
@@ -7839,7 +8320,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" ht="14.25">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="76"/>
       <c r="B70" s="12"/>
       <c r="C70" s="66"/>
@@ -7848,7 +8329,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" ht="14.25">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="76"/>
       <c r="B71" s="12"/>
       <c r="C71" s="66"/>
@@ -7857,7 +8338,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="76"/>
       <c r="B72" s="12"/>
       <c r="C72" s="66"/>
@@ -7866,7 +8347,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="76"/>
       <c r="B73" s="12"/>
       <c r="C73" s="66"/>
@@ -7875,7 +8356,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="76"/>
       <c r="B74" s="12"/>
       <c r="C74" s="66"/>
@@ -7884,7 +8365,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="76"/>
       <c r="B75" s="12"/>
       <c r="C75" s="66"/>
@@ -7893,7 +8374,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="76"/>
       <c r="B76" s="12"/>
       <c r="C76" s="66"/>
@@ -7902,7 +8383,7 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="76"/>
       <c r="B77" s="12"/>
       <c r="C77" s="66"/>
@@ -7911,7 +8392,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="76"/>
       <c r="B78" s="12"/>
       <c r="C78" s="66"/>
@@ -7920,7 +8401,7 @@
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="76"/>
       <c r="B79" s="12"/>
       <c r="C79" s="66"/>
@@ -7929,7 +8410,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="77"/>
       <c r="B80" s="12"/>
       <c r="C80" s="66"/>
@@ -7938,7 +8419,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="76"/>
       <c r="B81" s="12"/>
       <c r="C81" s="66"/>
@@ -7947,7 +8428,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" ht="14.25">
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="76"/>
       <c r="B82" s="12"/>
       <c r="C82" s="66"/>
@@ -7956,7 +8437,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="76"/>
       <c r="B83" s="12"/>
       <c r="C83" s="66"/>
@@ -7965,7 +8446,7 @@
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="76"/>
       <c r="B84" s="12"/>
       <c r="C84" s="66"/>
@@ -7974,7 +8455,7 @@
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="76"/>
       <c r="B85" s="12"/>
       <c r="C85" s="66"/>
@@ -7983,7 +8464,7 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="76"/>
       <c r="B86" s="12"/>
       <c r="C86" s="66"/>
@@ -7992,7 +8473,7 @@
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="76"/>
       <c r="B87" s="12"/>
       <c r="C87" s="66"/>
@@ -8001,7 +8482,7 @@
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="76"/>
       <c r="B88" s="12"/>
       <c r="C88" s="66"/>
@@ -8010,7 +8491,7 @@
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="76"/>
       <c r="B89" s="12"/>
       <c r="C89" s="66"/>
@@ -8019,7 +8500,7 @@
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="77"/>
       <c r="B90" s="12"/>
       <c r="C90" s="66"/>
@@ -8040,11 +8521,11 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8054,23 +8535,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8084,7 +8565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>12</v>
       </c>
@@ -8098,7 +8579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>12</v>
       </c>
@@ -8112,47 +8593,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -429,6 +429,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -437,17 +438,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -455,12 +459,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -468,6 +474,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1147,6 +1154,9 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,9 +1183,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1475,21 +1482,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -1533,7 +1540,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="73">
+      <c r="A3" s="74">
         <v>12</v>
       </c>
       <c r="B3" s="30">
@@ -1575,7 +1582,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="30">
         <v>52</v>
       </c>
@@ -1615,7 +1622,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="30">
         <v>53</v>
       </c>
@@ -1655,7 +1662,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32"/>
@@ -1673,7 +1680,7 @@
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
@@ -1691,7 +1698,7 @@
       <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
@@ -1709,7 +1716,7 @@
       <c r="M8" s="54"/>
     </row>
     <row r="9" spans="1:13" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73">
+      <c r="A9" s="74">
         <v>1</v>
       </c>
       <c r="B9" s="35"/>
@@ -1726,7 +1733,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="30">
         <v>1</v>
       </c>
@@ -1766,7 +1773,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="30">
         <v>2</v>
       </c>
@@ -1805,7 +1812,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="30">
         <v>3</v>
       </c>
@@ -1844,7 +1851,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="30">
         <v>4</v>
       </c>
@@ -1884,7 +1891,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="30">
         <v>5</v>
       </c>
@@ -1924,7 +1931,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="A15" s="74">
         <v>2</v>
       </c>
       <c r="B15" s="30">
@@ -1966,7 +1973,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="30">
         <v>7</v>
       </c>
@@ -2005,7 +2012,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="30">
         <v>8</v>
       </c>
@@ -2044,7 +2051,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="30">
         <v>9</v>
       </c>
@@ -2084,15 +2091,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="30">
         <v>10</v>
       </c>
       <c r="C19" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="32">
         <v>3</v>
@@ -2106,25 +2113,25 @@
       <c r="I19" s="45">
         <v>0</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="46" t="e">
         <f t="shared" ref="J19" si="17">I19/L19*100%</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="47">
         <f t="shared" ref="K19" si="18">C19+G19</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" s="48">
         <f t="shared" ref="L19" si="19">D19+G19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="49">
         <f t="shared" ref="M19" si="20">L19/K19*100%</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
+      <c r="A20" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2143,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2641,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="62">
         <v>43157</v>
@@ -2672,7 +2679,7 @@
       <c r="M11" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="69" t="s">
         <v>100</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -2681,7 +2688,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="62">
         <v>43158</v>
@@ -2719,7 +2726,7 @@
       <c r="M12" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N12" s="69">
         <v>13814504030</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -7644,8 +7651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7683,7 +7690,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
+      <c r="A2" s="76">
         <v>10</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -7706,7 +7713,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="57" t="s">
         <v>61</v>
       </c>
@@ -7727,7 +7734,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="57"/>
       <c r="C4" s="66"/>
       <c r="D4" s="58"/>
@@ -7736,7 +7743,7 @@
       <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="57"/>
       <c r="C5" s="66"/>
       <c r="D5" s="58"/>
@@ -7745,7 +7752,7 @@
       <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="12"/>
       <c r="C6" s="66"/>
       <c r="D6" s="13"/>
@@ -7754,7 +7761,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="12"/>
       <c r="C7" s="66"/>
       <c r="D7" s="13"/>
@@ -7763,7 +7770,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="12"/>
       <c r="C8" s="66"/>
       <c r="D8" s="13"/>
@@ -7772,7 +7779,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="12"/>
       <c r="C9" s="66"/>
       <c r="D9" s="13"/>
@@ -7781,7 +7788,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="12"/>
       <c r="C10" s="66"/>
       <c r="D10" s="13"/>
@@ -7790,7 +7797,7 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="12"/>
       <c r="C11" s="66"/>
       <c r="D11" s="13"/>
@@ -7799,7 +7806,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="12"/>
       <c r="C12" s="66"/>
       <c r="D12" s="13"/>
@@ -7808,7 +7815,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="12"/>
       <c r="C13" s="66"/>
       <c r="D13" s="13"/>
@@ -7817,7 +7824,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="15"/>
       <c r="C14" s="67"/>
       <c r="D14" s="16"/>
@@ -7826,7 +7833,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="15"/>
       <c r="C15" s="68"/>
       <c r="D15" s="16"/>
@@ -7835,7 +7842,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="12"/>
       <c r="C16" s="68"/>
       <c r="D16" s="16"/>
@@ -7844,7 +7851,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="12"/>
       <c r="C17" s="66"/>
       <c r="D17" s="13"/>
@@ -7853,7 +7860,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="12"/>
       <c r="C18" s="66"/>
       <c r="D18" s="13"/>
@@ -7862,7 +7869,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="12"/>
       <c r="C19" s="66"/>
       <c r="D19" s="13"/>
@@ -7871,7 +7878,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="12"/>
       <c r="C20" s="66"/>
       <c r="D20" s="13"/>
@@ -7880,7 +7887,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="12"/>
       <c r="C21" s="66"/>
       <c r="D21" s="13"/>
@@ -7889,7 +7896,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="14"/>
       <c r="C22" s="62"/>
       <c r="D22" s="13"/>
@@ -7898,7 +7905,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="14"/>
       <c r="C23" s="62"/>
       <c r="D23" s="13"/>
@@ -7907,7 +7914,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="14"/>
       <c r="C24" s="62"/>
       <c r="D24" s="13"/>
@@ -7916,7 +7923,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="14"/>
       <c r="C25" s="62"/>
       <c r="D25" s="13"/>
@@ -7925,7 +7932,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="14"/>
       <c r="C26" s="62"/>
       <c r="D26" s="13"/>
@@ -7934,7 +7941,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="15"/>
       <c r="C27" s="68"/>
       <c r="D27" s="16"/>
@@ -7943,7 +7950,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="12"/>
       <c r="C28" s="68"/>
       <c r="D28" s="16"/>
@@ -7952,7 +7959,7 @@
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="12"/>
       <c r="C29" s="66"/>
       <c r="D29" s="13"/>
@@ -7961,7 +7968,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="12"/>
       <c r="C30" s="66"/>
       <c r="D30" s="13"/>
@@ -7970,7 +7977,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="14"/>
       <c r="C31" s="62"/>
       <c r="D31" s="13"/>
@@ -7979,7 +7986,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="14"/>
       <c r="C32" s="62"/>
       <c r="D32" s="13"/>
@@ -7988,7 +7995,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="14"/>
       <c r="C33" s="62"/>
       <c r="D33" s="13"/>
@@ -7997,7 +8004,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="12"/>
       <c r="C34" s="66"/>
       <c r="D34" s="13"/>
@@ -8006,7 +8013,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="12"/>
       <c r="C35" s="66"/>
       <c r="D35" s="13"/>
@@ -8015,7 +8022,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="14"/>
       <c r="C36" s="62"/>
       <c r="D36" s="13"/>
@@ -8024,7 +8031,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="14"/>
       <c r="C37" s="62"/>
       <c r="D37" s="13"/>
@@ -8033,7 +8040,7 @@
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="14"/>
       <c r="C38" s="62"/>
       <c r="D38" s="13"/>
@@ -8042,7 +8049,7 @@
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="14"/>
       <c r="C39" s="62"/>
       <c r="D39" s="13"/>
@@ -8051,7 +8058,7 @@
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="14"/>
       <c r="C40" s="62"/>
       <c r="D40" s="13"/>
@@ -8060,7 +8067,7 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="14"/>
       <c r="C41" s="62"/>
       <c r="D41" s="13"/>
@@ -8069,7 +8076,7 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="12"/>
       <c r="C42" s="68"/>
       <c r="D42" s="16"/>
@@ -8078,7 +8085,7 @@
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="12"/>
       <c r="C43" s="66"/>
       <c r="D43" s="16"/>
@@ -8087,7 +8094,7 @@
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="12"/>
       <c r="C44" s="66"/>
       <c r="D44" s="13"/>
@@ -8096,7 +8103,7 @@
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="76"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="12"/>
       <c r="C45" s="66"/>
       <c r="D45" s="13"/>
@@ -8105,7 +8112,7 @@
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="76"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="12"/>
       <c r="C46" s="66"/>
       <c r="D46" s="13"/>
@@ -8114,7 +8121,7 @@
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="12"/>
       <c r="C47" s="66"/>
       <c r="D47" s="13"/>
@@ -8123,7 +8130,7 @@
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="76"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="12"/>
       <c r="C48" s="66"/>
       <c r="D48" s="13"/>
@@ -8132,7 +8139,7 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="76"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="12"/>
       <c r="C49" s="66"/>
       <c r="D49" s="13"/>
@@ -8141,7 +8148,7 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="14"/>
       <c r="C50" s="62"/>
       <c r="D50" s="13"/>
@@ -8150,7 +8157,7 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="76"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="14"/>
       <c r="C51" s="62"/>
       <c r="D51" s="13"/>
@@ -8159,7 +8166,7 @@
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="76"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="14"/>
       <c r="C52" s="62"/>
       <c r="D52" s="13"/>
@@ -8168,7 +8175,7 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="14"/>
       <c r="C53" s="62"/>
       <c r="D53" s="13"/>
@@ -8177,7 +8184,7 @@
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="14"/>
       <c r="C54" s="62"/>
       <c r="D54" s="13"/>
@@ -8186,7 +8193,7 @@
       <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="14"/>
       <c r="C55" s="62"/>
       <c r="D55" s="13"/>
@@ -8195,7 +8202,7 @@
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="12"/>
       <c r="C56" s="66"/>
       <c r="D56" s="13"/>
@@ -8204,7 +8211,7 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
+      <c r="A57" s="76"/>
       <c r="B57" s="12"/>
       <c r="C57" s="68"/>
       <c r="D57" s="16"/>
@@ -8213,7 +8220,7 @@
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="76"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="12"/>
       <c r="C58" s="66"/>
       <c r="D58" s="16"/>
@@ -8222,7 +8229,7 @@
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="76"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="12"/>
       <c r="C59" s="66"/>
       <c r="D59" s="16"/>
@@ -8231,7 +8238,7 @@
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="76"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="12"/>
       <c r="C60" s="66"/>
       <c r="D60" s="16"/>
@@ -8240,7 +8247,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="76"/>
+      <c r="A61" s="77"/>
       <c r="B61" s="12"/>
       <c r="C61" s="66"/>
       <c r="D61" s="13"/>
@@ -8249,7 +8256,7 @@
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="12"/>
       <c r="C62" s="66"/>
       <c r="D62" s="13"/>
@@ -8258,7 +8265,7 @@
       <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="12"/>
       <c r="C63" s="66"/>
       <c r="D63" s="13"/>
@@ -8267,7 +8274,7 @@
       <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="76"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="12"/>
       <c r="C64" s="66"/>
       <c r="D64" s="13"/>
@@ -8276,7 +8283,7 @@
       <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="12"/>
       <c r="C65" s="66"/>
       <c r="D65" s="13"/>
@@ -8285,7 +8292,7 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="76"/>
+      <c r="A66" s="77"/>
       <c r="B66" s="12"/>
       <c r="C66" s="66"/>
       <c r="D66" s="13"/>
@@ -8294,7 +8301,7 @@
       <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="76"/>
+      <c r="A67" s="77"/>
       <c r="B67" s="12"/>
       <c r="C67" s="66"/>
       <c r="D67" s="13"/>
@@ -8303,7 +8310,7 @@
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
+      <c r="A68" s="78"/>
       <c r="B68" s="12"/>
       <c r="C68" s="66"/>
       <c r="D68" s="13"/>
@@ -8312,7 +8319,7 @@
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="12"/>
       <c r="C69" s="68"/>
       <c r="D69" s="16"/>
@@ -8321,7 +8328,7 @@
       <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="76"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="12"/>
       <c r="C70" s="66"/>
       <c r="D70" s="16"/>
@@ -8330,7 +8337,7 @@
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="76"/>
+      <c r="A71" s="77"/>
       <c r="B71" s="12"/>
       <c r="C71" s="66"/>
       <c r="D71" s="16"/>
@@ -8339,7 +8346,7 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="76"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="12"/>
       <c r="C72" s="66"/>
       <c r="D72" s="16"/>
@@ -8348,7 +8355,7 @@
       <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="76"/>
+      <c r="A73" s="77"/>
       <c r="B73" s="12"/>
       <c r="C73" s="66"/>
       <c r="D73" s="13"/>
@@ -8357,7 +8364,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="76"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="12"/>
       <c r="C74" s="66"/>
       <c r="D74" s="13"/>
@@ -8366,7 +8373,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="76"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="12"/>
       <c r="C75" s="66"/>
       <c r="D75" s="13"/>
@@ -8375,7 +8382,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="76"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="12"/>
       <c r="C76" s="66"/>
       <c r="D76" s="13"/>
@@ -8384,7 +8391,7 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="76"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="12"/>
       <c r="C77" s="66"/>
       <c r="D77" s="13"/>
@@ -8393,7 +8400,7 @@
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="76"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="12"/>
       <c r="C78" s="66"/>
       <c r="D78" s="13"/>
@@ -8402,7 +8409,7 @@
       <c r="G78" s="14"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="76"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="12"/>
       <c r="C79" s="66"/>
       <c r="D79" s="13"/>
@@ -8411,7 +8418,7 @@
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="77"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="12"/>
       <c r="C80" s="66"/>
       <c r="D80" s="13"/>
@@ -8420,7 +8427,7 @@
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="76"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="12"/>
       <c r="C81" s="66"/>
       <c r="D81" s="16"/>
@@ -8429,7 +8436,7 @@
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="76"/>
+      <c r="A82" s="77"/>
       <c r="B82" s="12"/>
       <c r="C82" s="66"/>
       <c r="D82" s="16"/>
@@ -8438,7 +8445,7 @@
       <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="76"/>
+      <c r="A83" s="77"/>
       <c r="B83" s="12"/>
       <c r="C83" s="66"/>
       <c r="D83" s="13"/>
@@ -8447,7 +8454,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="76"/>
+      <c r="A84" s="77"/>
       <c r="B84" s="12"/>
       <c r="C84" s="66"/>
       <c r="D84" s="13"/>
@@ -8456,7 +8463,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="76"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="12"/>
       <c r="C85" s="66"/>
       <c r="D85" s="13"/>
@@ -8465,7 +8472,7 @@
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="76"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="12"/>
       <c r="C86" s="66"/>
       <c r="D86" s="13"/>
@@ -8474,7 +8481,7 @@
       <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="76"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="12"/>
       <c r="C87" s="66"/>
       <c r="D87" s="13"/>
@@ -8483,7 +8490,7 @@
       <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="76"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="12"/>
       <c r="C88" s="66"/>
       <c r="D88" s="13"/>
@@ -8492,7 +8499,7 @@
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="76"/>
+      <c r="A89" s="77"/>
       <c r="B89" s="12"/>
       <c r="C89" s="66"/>
       <c r="D89" s="13"/>
@@ -8501,7 +8508,7 @@
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="12"/>
       <c r="C90" s="66"/>
       <c r="D90" s="13"/>

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FZQ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FZQ\Documents\HLL文件\ceshi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{65700582-8968-4012-AECF-614BC13AA654}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,12 +18,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -211,10 +212,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>李雪磊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>方兆强</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -227,10 +224,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>八戒肥肠(3家店)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>SaaS</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -407,6 +400,78 @@
   <si>
     <t>孔总</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>季总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老品牌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒肥肠美食有限公司</t>
+  </si>
+  <si>
+    <t>八戒肥肠（莱茵店）</t>
+  </si>
+  <si>
+    <t>东关街店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒肥肠（淳化店）</t>
+  </si>
+  <si>
+    <t>八戒肥肠（天元吉第城）</t>
+  </si>
+  <si>
+    <t>广陵新学院店</t>
+  </si>
+  <si>
+    <t>八戒肥肠</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州三香路家乐福店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王化洲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T负责人</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉苏州相城圆融店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +572,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -564,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -940,13 +1012,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1260,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,6 +1271,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1931,7 +2028,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="74">
+      <c r="A15" s="76">
         <v>2</v>
       </c>
       <c r="B15" s="30">
@@ -2074,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="46">
-        <f t="shared" ref="J18" si="15">I18/L18*100%</f>
+        <f t="shared" ref="J18:J19" si="15">I18/L18*100%</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="K18" s="47">
@@ -2090,7 +2187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="74"/>
       <c r="B19" s="30">
         <v>10</v>
@@ -2114,31 +2211,179 @@
         <v>0</v>
       </c>
       <c r="J19" s="46" t="e">
-        <f t="shared" ref="J19" si="17">I19/L19*100%</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="47">
-        <f t="shared" ref="K19" si="18">C19+G19</f>
+        <f t="shared" ref="K19" si="17">C19+G19</f>
         <v>3</v>
       </c>
       <c r="L19" s="48">
-        <f t="shared" ref="L19" si="19">D19+G19</f>
+        <f t="shared" ref="L19" si="18">D19+G19</f>
         <v>0</v>
       </c>
       <c r="M19" s="49">
-        <f t="shared" ref="M19" si="20">L19/K19*100%</f>
+        <f t="shared" ref="M19" si="19">L19/K19*100%</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="76">
+        <v>3</v>
+      </c>
+      <c r="B20" s="30">
+        <v>11</v>
+      </c>
+      <c r="C20" s="31">
+        <v>8</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33">
+        <f>F20-G20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="45">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <v>0</v>
+      </c>
+      <c r="K20" s="47">
+        <f>C20+G20</f>
+        <v>8</v>
+      </c>
+      <c r="L20" s="48">
+        <f>D20+G20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="49">
+        <f>L20/K20*100%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="74"/>
+      <c r="B21" s="30">
+        <v>12</v>
+      </c>
+      <c r="C21" s="31">
+        <v>8</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33">
+        <f t="shared" ref="H21:H22" si="20">F21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="45">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <v>0</v>
+      </c>
+      <c r="K21" s="47">
+        <f t="shared" ref="K21:K22" si="21">C21+G21</f>
+        <v>8</v>
+      </c>
+      <c r="L21" s="48">
+        <f t="shared" ref="L21:L22" si="22">D21+G21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="49">
+        <f t="shared" ref="M21:M22" si="23">L21/K21*100%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
+      <c r="B22" s="30">
+        <v>13</v>
+      </c>
+      <c r="C22" s="31">
+        <v>8</v>
+      </c>
+      <c r="D22" s="32">
+        <v>7</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="45">
+        <v>2</v>
+      </c>
+      <c r="J22" s="46">
+        <f t="shared" ref="J22" si="24">I22/L22*100%</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K22" s="47">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="L22" s="48">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="M22" s="49">
+        <f t="shared" si="23"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A24"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2150,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2224,7 +2469,7 @@
         <v>43102</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>37</v>
@@ -2271,7 +2516,7 @@
         <v>43103</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>46</v>
@@ -2318,37 +2563,37 @@
         <v>43124</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>64</v>
       </c>
       <c r="G4" s="56">
         <v>76125705</v>
       </c>
       <c r="H4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>63</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>65</v>
       </c>
       <c r="K4" s="14">
         <v>15952077449</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N4" s="1">
         <v>13952023516</v>
@@ -2365,37 +2610,37 @@
         <v>43129</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N5" s="1">
         <v>15605155898</v>
@@ -2412,37 +2657,37 @@
         <v>43130</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N6" s="1">
         <v>18796963653</v>
@@ -2459,7 +2704,7 @@
         <v>43132</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>37</v>
@@ -2474,7 +2719,7 @@
         <v>76128399</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>41</v>
@@ -2486,10 +2731,10 @@
         <v>15952077449</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N7" s="14">
         <v>13773320055</v>
@@ -2506,22 +2751,22 @@
         <v>43133</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="55" t="s">
         <v>81</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>83</v>
       </c>
       <c r="G8" s="14">
         <v>76129828</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>41</v>
@@ -2533,10 +2778,10 @@
         <v>15952077449</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M8" s="55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N8" s="14">
         <v>18952027077</v>
@@ -2553,22 +2798,22 @@
         <v>43140</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="55" t="s">
         <v>86</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>88</v>
       </c>
       <c r="G9" s="14">
         <v>76130623</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>41</v>
@@ -2580,10 +2825,10 @@
         <v>15952077449</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N9" s="14">
         <v>18768124846</v>
@@ -2600,22 +2845,22 @@
         <v>43144</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="14">
         <v>76118602</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>41</v>
@@ -2627,10 +2872,10 @@
         <v>15952077449</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M10" s="55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N10" s="55">
         <v>18762310760</v>
@@ -2647,22 +2892,22 @@
         <v>43157</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G11" s="14">
         <v>76131263</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>41</v>
@@ -2674,13 +2919,13 @@
         <v>15952077449</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M11" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N11" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>51</v>
@@ -2694,22 +2939,22 @@
         <v>43158</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="14">
         <v>76132273</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>41</v>
@@ -2721,10 +2966,10 @@
         <v>15952077449</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N12" s="69">
         <v>13814504030</v>
@@ -2734,123 +2979,333 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="62">
+        <v>43183</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="14">
+        <v>76137862</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="14">
+        <v>15996213885</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="62">
+        <v>43183</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="14">
+        <v>76137863</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="14">
+        <v>15996213885</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="62">
+        <v>43184</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="14">
+        <v>76139652</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="1">
+        <v>18952027077</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="A16" s="14">
+        <v>13</v>
+      </c>
+      <c r="B16" s="62">
+        <v>43185</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="14">
+        <v>76150298</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="14">
+        <v>18952027077</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="14">
+        <v>13</v>
+      </c>
+      <c r="B17" s="62">
+        <v>43186</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="14">
+        <v>76150305</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="14">
+        <v>18952027077</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="14">
+        <v>13</v>
+      </c>
+      <c r="B18" s="80">
+        <v>43187</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="81">
+        <v>76132962</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18" s="14">
+        <v>18020275119</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="14">
+        <v>13</v>
+      </c>
+      <c r="B19" s="80">
+        <v>43187</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="81">
+        <v>76132980</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="14">
+        <v>15952077449</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="14">
+        <v>18020275119</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -7652,7 +8107,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7690,8 +8145,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="76">
-        <v>10</v>
+      <c r="A2" s="77">
+        <v>13</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>52</v>
@@ -7713,28 +8168,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="66">
-        <v>43102</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>57</v>
-      </c>
+      <c r="A3" s="78"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="57"/>
       <c r="C4" s="66"/>
       <c r="D4" s="58"/>
@@ -7743,7 +8186,7 @@
       <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="57"/>
       <c r="C5" s="66"/>
       <c r="D5" s="58"/>
@@ -7752,7 +8195,7 @@
       <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="12"/>
       <c r="C6" s="66"/>
       <c r="D6" s="13"/>
@@ -7761,7 +8204,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="12"/>
       <c r="C7" s="66"/>
       <c r="D7" s="13"/>
@@ -7770,7 +8213,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="12"/>
       <c r="C8" s="66"/>
       <c r="D8" s="13"/>
@@ -7779,7 +8222,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="12"/>
       <c r="C9" s="66"/>
       <c r="D9" s="13"/>
@@ -7788,7 +8231,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="12"/>
       <c r="C10" s="66"/>
       <c r="D10" s="13"/>
@@ -7797,7 +8240,7 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="12"/>
       <c r="C11" s="66"/>
       <c r="D11" s="13"/>
@@ -7806,7 +8249,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="12"/>
       <c r="C12" s="66"/>
       <c r="D12" s="13"/>
@@ -7815,7 +8258,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="12"/>
       <c r="C13" s="66"/>
       <c r="D13" s="13"/>
@@ -7824,7 +8267,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="15"/>
       <c r="C14" s="67"/>
       <c r="D14" s="16"/>
@@ -7833,7 +8276,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="15"/>
       <c r="C15" s="68"/>
       <c r="D15" s="16"/>
@@ -7842,7 +8285,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="12"/>
       <c r="C16" s="68"/>
       <c r="D16" s="16"/>
@@ -7851,7 +8294,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="12"/>
       <c r="C17" s="66"/>
       <c r="D17" s="13"/>
@@ -7860,7 +8303,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="12"/>
       <c r="C18" s="66"/>
       <c r="D18" s="13"/>
@@ -7869,7 +8312,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="12"/>
       <c r="C19" s="66"/>
       <c r="D19" s="13"/>
@@ -7878,7 +8321,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="12"/>
       <c r="C20" s="66"/>
       <c r="D20" s="13"/>
@@ -7887,7 +8330,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="12"/>
       <c r="C21" s="66"/>
       <c r="D21" s="13"/>
@@ -7896,7 +8339,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="14"/>
       <c r="C22" s="62"/>
       <c r="D22" s="13"/>
@@ -7905,7 +8348,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="14"/>
       <c r="C23" s="62"/>
       <c r="D23" s="13"/>
@@ -7914,7 +8357,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="14"/>
       <c r="C24" s="62"/>
       <c r="D24" s="13"/>
@@ -7923,7 +8366,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="14"/>
       <c r="C25" s="62"/>
       <c r="D25" s="13"/>
@@ -7932,7 +8375,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="14"/>
       <c r="C26" s="62"/>
       <c r="D26" s="13"/>
@@ -7941,7 +8384,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="15"/>
       <c r="C27" s="68"/>
       <c r="D27" s="16"/>
@@ -7950,7 +8393,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="12"/>
       <c r="C28" s="68"/>
       <c r="D28" s="16"/>
@@ -7959,7 +8402,7 @@
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="12"/>
       <c r="C29" s="66"/>
       <c r="D29" s="13"/>
@@ -7968,7 +8411,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="12"/>
       <c r="C30" s="66"/>
       <c r="D30" s="13"/>
@@ -7977,7 +8420,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="14"/>
       <c r="C31" s="62"/>
       <c r="D31" s="13"/>
@@ -7986,7 +8429,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="14"/>
       <c r="C32" s="62"/>
       <c r="D32" s="13"/>
@@ -7995,7 +8438,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="14"/>
       <c r="C33" s="62"/>
       <c r="D33" s="13"/>
@@ -8004,7 +8447,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="12"/>
       <c r="C34" s="66"/>
       <c r="D34" s="13"/>
@@ -8013,7 +8456,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="12"/>
       <c r="C35" s="66"/>
       <c r="D35" s="13"/>
@@ -8022,7 +8465,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="14"/>
       <c r="C36" s="62"/>
       <c r="D36" s="13"/>
@@ -8031,7 +8474,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="14"/>
       <c r="C37" s="62"/>
       <c r="D37" s="13"/>
@@ -8040,7 +8483,7 @@
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="14"/>
       <c r="C38" s="62"/>
       <c r="D38" s="13"/>
@@ -8049,7 +8492,7 @@
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="14"/>
       <c r="C39" s="62"/>
       <c r="D39" s="13"/>
@@ -8058,7 +8501,7 @@
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="14"/>
       <c r="C40" s="62"/>
       <c r="D40" s="13"/>
@@ -8067,7 +8510,7 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="14"/>
       <c r="C41" s="62"/>
       <c r="D41" s="13"/>
@@ -8076,7 +8519,7 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="12"/>
       <c r="C42" s="68"/>
       <c r="D42" s="16"/>
@@ -8085,7 +8528,7 @@
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="12"/>
       <c r="C43" s="66"/>
       <c r="D43" s="16"/>
@@ -8094,7 +8537,7 @@
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="12"/>
       <c r="C44" s="66"/>
       <c r="D44" s="13"/>
@@ -8103,7 +8546,7 @@
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="12"/>
       <c r="C45" s="66"/>
       <c r="D45" s="13"/>
@@ -8112,7 +8555,7 @@
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="12"/>
       <c r="C46" s="66"/>
       <c r="D46" s="13"/>
@@ -8121,7 +8564,7 @@
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
+      <c r="A47" s="78"/>
       <c r="B47" s="12"/>
       <c r="C47" s="66"/>
       <c r="D47" s="13"/>
@@ -8130,7 +8573,7 @@
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="12"/>
       <c r="C48" s="66"/>
       <c r="D48" s="13"/>
@@ -8139,7 +8582,7 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="12"/>
       <c r="C49" s="66"/>
       <c r="D49" s="13"/>
@@ -8148,7 +8591,7 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="14"/>
       <c r="C50" s="62"/>
       <c r="D50" s="13"/>
@@ -8157,7 +8600,7 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="14"/>
       <c r="C51" s="62"/>
       <c r="D51" s="13"/>
@@ -8166,7 +8609,7 @@
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="14"/>
       <c r="C52" s="62"/>
       <c r="D52" s="13"/>
@@ -8175,7 +8618,7 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="14"/>
       <c r="C53" s="62"/>
       <c r="D53" s="13"/>
@@ -8184,7 +8627,7 @@
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="14"/>
       <c r="C54" s="62"/>
       <c r="D54" s="13"/>
@@ -8193,7 +8636,7 @@
       <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="14"/>
       <c r="C55" s="62"/>
       <c r="D55" s="13"/>
@@ -8202,7 +8645,7 @@
       <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="12"/>
       <c r="C56" s="66"/>
       <c r="D56" s="13"/>
@@ -8211,7 +8654,7 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="12"/>
       <c r="C57" s="68"/>
       <c r="D57" s="16"/>
@@ -8220,7 +8663,7 @@
       <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="12"/>
       <c r="C58" s="66"/>
       <c r="D58" s="16"/>
@@ -8229,7 +8672,7 @@
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="12"/>
       <c r="C59" s="66"/>
       <c r="D59" s="16"/>
@@ -8238,7 +8681,7 @@
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="12"/>
       <c r="C60" s="66"/>
       <c r="D60" s="16"/>
@@ -8247,7 +8690,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="12"/>
       <c r="C61" s="66"/>
       <c r="D61" s="13"/>
@@ -8256,7 +8699,7 @@
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="12"/>
       <c r="C62" s="66"/>
       <c r="D62" s="13"/>
@@ -8265,7 +8708,7 @@
       <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="12"/>
       <c r="C63" s="66"/>
       <c r="D63" s="13"/>
@@ -8274,7 +8717,7 @@
       <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="12"/>
       <c r="C64" s="66"/>
       <c r="D64" s="13"/>
@@ -8283,7 +8726,7 @@
       <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="12"/>
       <c r="C65" s="66"/>
       <c r="D65" s="13"/>
@@ -8292,7 +8735,7 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="12"/>
       <c r="C66" s="66"/>
       <c r="D66" s="13"/>
@@ -8301,7 +8744,7 @@
       <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="12"/>
       <c r="C67" s="66"/>
       <c r="D67" s="13"/>
@@ -8310,7 +8753,7 @@
       <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="12"/>
       <c r="C68" s="66"/>
       <c r="D68" s="13"/>
@@ -8319,7 +8762,7 @@
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="76"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="12"/>
       <c r="C69" s="68"/>
       <c r="D69" s="16"/>
@@ -8328,7 +8771,7 @@
       <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="12"/>
       <c r="C70" s="66"/>
       <c r="D70" s="16"/>
@@ -8337,7 +8780,7 @@
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="77"/>
+      <c r="A71" s="78"/>
       <c r="B71" s="12"/>
       <c r="C71" s="66"/>
       <c r="D71" s="16"/>
@@ -8346,7 +8789,7 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
+      <c r="A72" s="78"/>
       <c r="B72" s="12"/>
       <c r="C72" s="66"/>
       <c r="D72" s="16"/>
@@ -8355,7 +8798,7 @@
       <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
+      <c r="A73" s="78"/>
       <c r="B73" s="12"/>
       <c r="C73" s="66"/>
       <c r="D73" s="13"/>
@@ -8364,7 +8807,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="12"/>
       <c r="C74" s="66"/>
       <c r="D74" s="13"/>
@@ -8373,7 +8816,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="12"/>
       <c r="C75" s="66"/>
       <c r="D75" s="13"/>
@@ -8382,7 +8825,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="12"/>
       <c r="C76" s="66"/>
       <c r="D76" s="13"/>
@@ -8391,7 +8834,7 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
+      <c r="A77" s="78"/>
       <c r="B77" s="12"/>
       <c r="C77" s="66"/>
       <c r="D77" s="13"/>
@@ -8400,7 +8843,7 @@
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="77"/>
+      <c r="A78" s="78"/>
       <c r="B78" s="12"/>
       <c r="C78" s="66"/>
       <c r="D78" s="13"/>
@@ -8409,7 +8852,7 @@
       <c r="G78" s="14"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="77"/>
+      <c r="A79" s="78"/>
       <c r="B79" s="12"/>
       <c r="C79" s="66"/>
       <c r="D79" s="13"/>
@@ -8418,7 +8861,7 @@
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="12"/>
       <c r="C80" s="66"/>
       <c r="D80" s="13"/>
@@ -8427,7 +8870,7 @@
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
+      <c r="A81" s="78"/>
       <c r="B81" s="12"/>
       <c r="C81" s="66"/>
       <c r="D81" s="16"/>
@@ -8436,7 +8879,7 @@
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
+      <c r="A82" s="78"/>
       <c r="B82" s="12"/>
       <c r="C82" s="66"/>
       <c r="D82" s="16"/>
@@ -8445,7 +8888,7 @@
       <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
+      <c r="A83" s="78"/>
       <c r="B83" s="12"/>
       <c r="C83" s="66"/>
       <c r="D83" s="13"/>
@@ -8454,7 +8897,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
+      <c r="A84" s="78"/>
       <c r="B84" s="12"/>
       <c r="C84" s="66"/>
       <c r="D84" s="13"/>
@@ -8463,7 +8906,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="78"/>
       <c r="B85" s="12"/>
       <c r="C85" s="66"/>
       <c r="D85" s="13"/>
@@ -8472,7 +8915,7 @@
       <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
+      <c r="A86" s="78"/>
       <c r="B86" s="12"/>
       <c r="C86" s="66"/>
       <c r="D86" s="13"/>
@@ -8481,7 +8924,7 @@
       <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
+      <c r="A87" s="78"/>
       <c r="B87" s="12"/>
       <c r="C87" s="66"/>
       <c r="D87" s="13"/>
@@ -8490,7 +8933,7 @@
       <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="12"/>
       <c r="C88" s="66"/>
       <c r="D88" s="13"/>
@@ -8499,7 +8942,7 @@
       <c r="G88" s="14"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="12"/>
       <c r="C89" s="66"/>
       <c r="D89" s="13"/>
@@ -8508,7 +8951,7 @@
       <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="78"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="12"/>
       <c r="C90" s="66"/>
       <c r="D90" s="13"/>
@@ -8577,13 +9020,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="6">
         <v>43086</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8591,13 +9034,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="61">
         <v>43092</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{212B4C6B-21E4-4B32-A363-0013F99D61DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AC290DAC-C810-4851-8D63-A19322B98681}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="156">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -558,14 +558,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>让签签飞吴江店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印机没到店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>八戒肥肠新亭店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -578,14 +570,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>八戒肥肠托乐嘉店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘汝君</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>八戒肥肠托乐嘉店实施及驻店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -603,6 +587,26 @@
   </si>
   <si>
     <t>一夫茶（仙鹤新天地店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>江总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒熊二精菜馆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒肥肠美食有限公司</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒肥肠（托乐嘉店）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1674,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" s="32">
         <v>2</v>
@@ -2602,7 +2606,7 @@
       </c>
       <c r="K26" s="47">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L26" s="48">
         <f t="shared" si="22"/>
@@ -2610,7 +2614,7 @@
       </c>
       <c r="M26" s="49">
         <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2647,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3676,7 +3680,7 @@
         <v>76158188</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>41</v>
@@ -3688,7 +3692,7 @@
         <v>15952077449</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M22" s="55" t="s">
         <v>50</v>
@@ -3723,7 +3727,7 @@
         <v>76153259</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>41</v>
@@ -3747,39 +3751,99 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+    <row r="24" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>17</v>
+      </c>
+      <c r="B24" s="55">
+        <v>43218</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="55">
+        <v>76159325</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="55">
+        <v>15952077449</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="55">
+        <v>13003428203</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="1">
+        <v>17</v>
+      </c>
+      <c r="B25" s="62">
+        <v>43218</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76163656</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="55">
+        <v>15952077449</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="M25" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="1">
+        <v>18651801572</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -8476,10 +8540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8566,7 +8630,7 @@
         <v>143</v>
       </c>
       <c r="C4" s="66">
-        <v>43209</v>
+        <v>43205</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>144</v>
@@ -8578,50 +8642,26 @@
         <v>55</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="78"/>
-      <c r="B5" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="66">
-        <v>43205</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="78"/>
-      <c r="B6" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="66">
-        <v>43205</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
@@ -8632,8 +8672,8 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
       <c r="B8" s="12"/>
       <c r="C8" s="66"/>
       <c r="D8" s="13"/>
@@ -8641,50 +8681,50 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="13"/>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="13"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="78"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="16"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
@@ -8715,8 +8755,8 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="66"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -8724,8 +8764,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -8750,7 +8790,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="14"/>
       <c r="C21" s="62"/>
       <c r="D21" s="13"/>
@@ -8758,46 +8798,46 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="13"/>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="13"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="78"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="16"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="78"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="78"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -8805,8 +8845,8 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="78"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -8823,8 +8863,8 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -8832,8 +8872,8 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -8841,8 +8881,8 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -8850,8 +8890,8 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="78"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="66"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -8885,7 +8925,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="14"/>
       <c r="C36" s="62"/>
       <c r="D36" s="13"/>
@@ -8893,41 +8933,41 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="13"/>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="77"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="13"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="78"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="78"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="78"/>
       <c r="B40" s="12"/>
       <c r="C40" s="66"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="78"/>
@@ -8967,8 +9007,8 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="78"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="66"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="13"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -8976,8 +9016,8 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="78"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -9020,40 +9060,40 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="78"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="62"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="13"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="13"/>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="77"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="78"/>
       <c r="B53" s="12"/>
       <c r="C53" s="66"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="68"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="16"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="12"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
@@ -9062,25 +9102,25 @@
       <c r="D55" s="16"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="78"/>
       <c r="B56" s="12"/>
       <c r="C56" s="66"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="78"/>
       <c r="B57" s="12"/>
       <c r="C57" s="66"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="78"/>
@@ -9128,7 +9168,7 @@
       <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="12"/>
       <c r="C63" s="66"/>
       <c r="D63" s="13"/>
@@ -9136,32 +9176,32 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="77"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="13"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="78"/>
       <c r="B65" s="12"/>
       <c r="C65" s="66"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="68"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="16"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="12"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="78"/>
@@ -9170,25 +9210,25 @@
       <c r="D67" s="16"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="78"/>
       <c r="B68" s="12"/>
       <c r="C68" s="66"/>
-      <c r="D68" s="16"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="78"/>
       <c r="B69" s="12"/>
       <c r="C69" s="66"/>
-      <c r="D69" s="16"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="78"/>
@@ -9236,7 +9276,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="12"/>
       <c r="C75" s="66"/>
       <c r="D75" s="13"/>
@@ -9244,41 +9284,41 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="78"/>
       <c r="B76" s="12"/>
       <c r="C76" s="66"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="79"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="78"/>
       <c r="B77" s="12"/>
       <c r="C77" s="66"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="78"/>
       <c r="B78" s="12"/>
       <c r="C78" s="66"/>
-      <c r="D78" s="16"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="78"/>
       <c r="B79" s="12"/>
       <c r="C79" s="66"/>
-      <c r="D79" s="16"/>
+      <c r="D79" s="13"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
-      <c r="G79" s="17"/>
+      <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
@@ -9326,7 +9366,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="12"/>
       <c r="C85" s="66"/>
       <c r="D85" s="13"/>
@@ -9334,33 +9374,15 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="79"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="A24:A38"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="A52:A63"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
@@ -9447,7 +9469,7 @@
         <v>43197</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9475,7 +9497,7 @@
         <v>43211</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\菜品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AC290DAC-C810-4851-8D63-A19322B98681}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DBBA70-A46D-417E-B0DA-5ABF22A71263}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="154">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -198,18 +198,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>店铺装修中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>连锁</t>
   </si>
   <si>
     <t>SAAS</t>
-  </si>
-  <si>
-    <t>崔冰冰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>方兆强</t>
@@ -582,10 +574,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>秦总</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>一夫茶（仙鹤新天地店）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -607,6 +595,10 @@
   </si>
   <si>
     <t>熊总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>季总</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1678,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2651,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23:M25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2717,7 @@
         <v>43102</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>37</v>
@@ -2772,7 +2764,7 @@
         <v>43103</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>46</v>
@@ -2819,37 +2811,37 @@
         <v>43124</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>62</v>
       </c>
       <c r="G4" s="56">
         <v>76125705</v>
       </c>
       <c r="H4" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>63</v>
       </c>
       <c r="K4" s="14">
         <v>15952077449</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N4" s="1">
         <v>13952023516</v>
@@ -2866,37 +2858,37 @@
         <v>43129</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>66</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>68</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1">
         <v>15605155898</v>
@@ -2913,37 +2905,37 @@
         <v>43130</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>71</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>73</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I6" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>66</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>68</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N6" s="1">
         <v>18796963653</v>
@@ -2960,7 +2952,7 @@
         <v>43132</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>37</v>
@@ -2975,7 +2967,7 @@
         <v>76128399</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>41</v>
@@ -2987,10 +2979,10 @@
         <v>15952077449</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N7" s="14">
         <v>13773320055</v>
@@ -3007,22 +2999,22 @@
         <v>43133</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="55" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>81</v>
       </c>
       <c r="G8" s="14">
         <v>76129828</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>41</v>
@@ -3034,10 +3026,10 @@
         <v>15952077449</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M8" s="55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N8" s="14">
         <v>18952027077</v>
@@ -3054,22 +3046,22 @@
         <v>43140</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="55" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>86</v>
       </c>
       <c r="G9" s="14">
         <v>76130623</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>41</v>
@@ -3081,10 +3073,10 @@
         <v>15952077449</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N9" s="14">
         <v>18768124846</v>
@@ -3101,22 +3093,22 @@
         <v>43144</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="14">
         <v>76118602</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>41</v>
@@ -3128,10 +3120,10 @@
         <v>15952077449</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M10" s="55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N10" s="55">
         <v>18762310760</v>
@@ -3148,22 +3140,22 @@
         <v>43157</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="14">
         <v>76131263</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>41</v>
@@ -3175,13 +3167,13 @@
         <v>15952077449</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M11" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N11" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>51</v>
@@ -3195,22 +3187,22 @@
         <v>43158</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="14">
         <v>76132273</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>41</v>
@@ -3222,10 +3214,10 @@
         <v>15952077449</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M12" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N12" s="69">
         <v>13814504030</v>
@@ -3242,13 +3234,13 @@
         <v>43183</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>39</v>
@@ -3257,7 +3249,7 @@
         <v>76137862</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>41</v>
@@ -3269,7 +3261,7 @@
         <v>15952077449</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>50</v>
@@ -3278,7 +3270,7 @@
         <v>15996213885</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3289,13 +3281,13 @@
         <v>43183</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>39</v>
@@ -3304,7 +3296,7 @@
         <v>76137863</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>41</v>
@@ -3316,7 +3308,7 @@
         <v>15952077449</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>50</v>
@@ -3325,7 +3317,7 @@
         <v>15996213885</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3336,13 +3328,13 @@
         <v>43184</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>41</v>
@@ -3351,7 +3343,7 @@
         <v>76139652</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>41</v>
@@ -3363,7 +3355,7 @@
         <v>15952077449</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M15" s="55" t="s">
         <v>50</v>
@@ -3383,13 +3375,13 @@
         <v>43185</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F16" s="55" t="s">
         <v>41</v>
@@ -3398,7 +3390,7 @@
         <v>76150298</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>41</v>
@@ -3410,7 +3402,7 @@
         <v>15952077449</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="55" t="s">
         <v>50</v>
@@ -3430,13 +3422,13 @@
         <v>43186</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F17" s="55" t="s">
         <v>41</v>
@@ -3445,7 +3437,7 @@
         <v>76150305</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>41</v>
@@ -3457,7 +3449,7 @@
         <v>15952077449</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M17" s="55" t="s">
         <v>50</v>
@@ -3477,22 +3469,22 @@
         <v>43197</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="55" t="s">
         <v>114</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>116</v>
       </c>
       <c r="G18" s="14">
         <v>76156072</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>41</v>
@@ -3504,10 +3496,10 @@
         <v>15952077449</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M18" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N18" s="1">
         <v>15365136818</v>
@@ -3524,25 +3516,25 @@
         <v>43201</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="G19" s="14">
         <v>76155329</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>42</v>
@@ -3551,10 +3543,10 @@
         <v>15952077449</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N19" s="1">
         <v>18910614320</v>
@@ -3571,22 +3563,22 @@
         <v>43207</v>
       </c>
       <c r="C20" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="F20" s="55" t="s">
         <v>127</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>129</v>
       </c>
       <c r="G20" s="14">
         <v>76153256</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>41</v>
@@ -3598,10 +3590,10 @@
         <v>15952077449</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M20" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N20" s="1">
         <v>13913145062</v>
@@ -3618,22 +3610,22 @@
         <v>43207</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G21" s="55">
         <v>76158795</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>41</v>
@@ -3645,10 +3637,10 @@
         <v>15952077449</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M21" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N21" s="14">
         <v>13675152232</v>
@@ -3659,13 +3651,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="62">
-        <v>43214</v>
+        <v>43220</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>37</v>
@@ -3680,7 +3672,7 @@
         <v>76158188</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>41</v>
@@ -3692,7 +3684,7 @@
         <v>15952077449</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M22" s="55" t="s">
         <v>50</v>
@@ -3701,24 +3693,24 @@
         <v>15396777171</v>
       </c>
       <c r="O22" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>17</v>
+      <c r="A23" s="14">
+        <v>18</v>
       </c>
       <c r="B23" s="62">
-        <v>43215</v>
+        <v>43220</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F23" s="55" t="s">
         <v>41</v>
@@ -3727,7 +3719,7 @@
         <v>76153259</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>41</v>
@@ -3739,7 +3731,7 @@
         <v>15952077449</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M23" s="55" t="s">
         <v>50</v>
@@ -3748,24 +3740,24 @@
         <v>13913145062</v>
       </c>
       <c r="O23" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55">
-        <v>17</v>
-      </c>
-      <c r="B24" s="55">
-        <v>43218</v>
+      <c r="A24" s="14">
+        <v>18</v>
+      </c>
+      <c r="B24" s="62">
+        <v>43220</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" s="55" t="s">
         <v>41</v>
@@ -3774,7 +3766,7 @@
         <v>76159325</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>41</v>
@@ -3786,7 +3778,7 @@
         <v>15952077449</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M24" s="55" t="s">
         <v>50</v>
@@ -3795,24 +3787,24 @@
         <v>13003428203</v>
       </c>
       <c r="O24" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>17</v>
+      <c r="A25" s="14">
+        <v>18</v>
       </c>
       <c r="B25" s="62">
-        <v>43218</v>
+        <v>43220</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F25" s="55" t="s">
         <v>41</v>
@@ -3821,7 +3813,7 @@
         <v>76163656</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>41</v>
@@ -3833,7 +3825,7 @@
         <v>15952077449</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M25" s="55" t="s">
         <v>50</v>
@@ -3846,21 +3838,51 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="14">
+        <v>18</v>
+      </c>
+      <c r="B26" s="62">
+        <v>43220</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="14">
+        <v>76119975</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="55">
+        <v>15952077449</v>
+      </c>
+      <c r="L26" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="55">
+        <v>15396777171</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -8540,10 +8562,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8581,69 +8603,57 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="77">
-        <v>17</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>52</v>
+      <c r="A2" s="78">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C2" s="66">
-        <v>43094</v>
+        <v>43203</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="78"/>
       <c r="B3" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" s="66">
-        <v>43203</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>140</v>
+        <v>43205</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>142</v>
+        <v>54</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="78"/>
-      <c r="B4" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="66">
-        <v>43205</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="78"/>
@@ -8663,8 +8673,8 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
       <c r="B7" s="12"/>
       <c r="C7" s="66"/>
       <c r="D7" s="13"/>
@@ -8672,19 +8682,19 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="13"/>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -8692,21 +8702,21 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="68"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
@@ -8746,8 +8756,8 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -8781,7 +8791,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="14"/>
       <c r="C20" s="62"/>
       <c r="D20" s="13"/>
@@ -8789,32 +8799,32 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="13"/>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="68"/>
       <c r="D22" s="16"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
@@ -8827,8 +8837,8 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -8854,8 +8864,8 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -8872,8 +8882,8 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -8916,7 +8926,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="14"/>
       <c r="C35" s="62"/>
       <c r="D35" s="13"/>
@@ -8924,32 +8934,32 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="13"/>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="77"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="68"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="12"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="78"/>
@@ -8998,8 +9008,8 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="66"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="13"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -9051,31 +9061,31 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="13"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="77"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="68"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="16"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="12"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="78"/>
@@ -9093,16 +9103,16 @@
       <c r="D54" s="16"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="12"/>
       <c r="C55" s="66"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="17"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="78"/>
@@ -9159,7 +9169,7 @@
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="12"/>
       <c r="C62" s="66"/>
       <c r="D62" s="13"/>
@@ -9167,23 +9177,23 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="13"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="68"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="16"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="12"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="78"/>
@@ -9201,16 +9211,16 @@
       <c r="D66" s="16"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="78"/>
       <c r="B67" s="12"/>
       <c r="C67" s="66"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="78"/>
@@ -9267,7 +9277,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="12"/>
       <c r="C74" s="66"/>
       <c r="D74" s="13"/>
@@ -9275,14 +9285,14 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="79"/>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="78"/>
       <c r="B75" s="12"/>
       <c r="C75" s="66"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="78"/>
@@ -9291,16 +9301,16 @@
       <c r="D76" s="16"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="78"/>
       <c r="B77" s="12"/>
       <c r="C77" s="66"/>
-      <c r="D77" s="16"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="17"/>
+      <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="78"/>
@@ -9357,7 +9367,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="12"/>
       <c r="C84" s="66"/>
       <c r="D84" s="13"/>
@@ -9365,24 +9375,15 @@
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="A37:A51"/>
-    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="A51:A62"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
@@ -9435,13 +9436,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6">
         <v>43086</v>
       </c>
       <c r="D2" s="59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9449,13 +9450,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="61">
         <v>43092</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9469,7 +9470,7 @@
         <v>43197</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9483,7 +9484,7 @@
         <v>43205</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9497,7 +9498,7 @@
         <v>43211</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\菜品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DBBA70-A46D-417E-B0DA-5ABF22A71263}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82F00095-0991-48D5-A31E-81C23979F812}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="157">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -566,10 +566,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>让签签飞实施及培训（工资）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>又卷烧饼江都工农路店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -599,6 +595,22 @@
   </si>
   <si>
     <t>季总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>值班</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>君渴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔冰冰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>让签签飞实施及培训</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2643,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -3672,7 +3684,7 @@
         <v>76158188</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>41</v>
@@ -3684,7 +3696,7 @@
         <v>15952077449</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M22" s="55" t="s">
         <v>50</v>
@@ -3719,7 +3731,7 @@
         <v>76153259</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>41</v>
@@ -3754,7 +3766,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="55" t="s">
         <v>111</v>
@@ -3766,7 +3778,7 @@
         <v>76159325</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>41</v>
@@ -3778,7 +3790,7 @@
         <v>15952077449</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M24" s="55" t="s">
         <v>50</v>
@@ -3801,10 +3813,10 @@
         <v>58</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="55" t="s">
         <v>41</v>
@@ -3813,7 +3825,7 @@
         <v>76163656</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>41</v>
@@ -3825,7 +3837,7 @@
         <v>15952077449</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M25" s="55" t="s">
         <v>50</v>
@@ -3872,7 +3884,7 @@
         <v>15952077449</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M26" s="55" t="s">
         <v>50</v>
@@ -8565,7 +8577,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8648,12 +8660,24 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="78"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="66">
+        <v>43215</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="78"/>
@@ -9404,8 +9428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9470,7 +9494,7 @@
         <v>43197</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9502,9 +9526,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="61">
+        <v>43220</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82F00095-0991-48D5-A31E-81C23979F812}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4A46F73-C87A-4722-AEC1-E13A6D9D53CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="162">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -611,6 +611,26 @@
   </si>
   <si>
     <t>让签签飞实施及培训</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大薯条</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱻居酒屋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花食间花艺</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪冰洋</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1682,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2419,15 +2439,15 @@
         <v>0</v>
       </c>
       <c r="K21" s="47">
-        <f t="shared" ref="K21:K26" si="21">C21+G21</f>
+        <f t="shared" ref="K21:K27" si="21">C21+G21</f>
         <v>6</v>
       </c>
       <c r="L21" s="48">
-        <f t="shared" ref="L21:L26" si="22">D21+G21</f>
+        <f t="shared" ref="L21:L27" si="22">D21+G21</f>
         <v>0</v>
       </c>
       <c r="M21" s="49">
-        <f t="shared" ref="M21:M26" si="23">L21/K21*100%</f>
+        <f t="shared" ref="M21:M27" si="23">L21/K21*100%</f>
         <v>0</v>
       </c>
     </row>
@@ -2455,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="46">
-        <f t="shared" ref="J22:J26" si="24">I22/L22*100%</f>
+        <f t="shared" ref="J22:J27" si="24">I22/L22*100%</f>
         <v>0.4</v>
       </c>
       <c r="K22" s="47">
@@ -2623,18 +2643,40 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="71"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="B27" s="30">
+        <v>19</v>
+      </c>
+      <c r="C27" s="31">
+        <v>6</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
       <c r="H27" s="33"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+      <c r="I27" s="45">
+        <v>0</v>
+      </c>
+      <c r="J27" s="46" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="47">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L27" s="48">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="49">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8574,10 +8616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8616,7 +8658,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="78">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>137</v>
@@ -8681,44 +8723,82 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="78"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="66">
+        <v>43229</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="78"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="16"/>
+      <c r="B6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="66">
+        <v>43224</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="78"/>
+      <c r="B7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="66">
+        <v>43225</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -8726,21 +8806,21 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="68"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
@@ -8780,8 +8860,8 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -8815,7 +8895,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="14"/>
       <c r="C20" s="62"/>
       <c r="D20" s="13"/>
@@ -8823,32 +8903,32 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="16"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="68"/>
       <c r="D22" s="16"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
@@ -8861,8 +8941,8 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -8888,8 +8968,8 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -8906,8 +8986,8 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -8950,7 +9030,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="14"/>
       <c r="C35" s="62"/>
       <c r="D35" s="13"/>
@@ -8958,32 +9038,32 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="16"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="66"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="16"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
       <c r="B38" s="12"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="13"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="78"/>
@@ -9032,8 +9112,8 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="78"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="62"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="13"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -9085,31 +9165,31 @@
       <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="66"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="13"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="79"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="66"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="16"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="78"/>
@@ -9127,16 +9207,16 @@
       <c r="D54" s="16"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="12"/>
       <c r="C55" s="66"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="78"/>
@@ -9193,7 +9273,7 @@
       <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="79"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="12"/>
       <c r="C62" s="66"/>
       <c r="D62" s="13"/>
@@ -9201,23 +9281,23 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="79"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="16"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="12"/>
+      <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="66"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="16"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="78"/>
@@ -9235,16 +9315,16 @@
       <c r="D66" s="16"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="78"/>
       <c r="B67" s="12"/>
       <c r="C67" s="66"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="78"/>
@@ -9301,7 +9381,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="79"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="12"/>
       <c r="C74" s="66"/>
       <c r="D74" s="13"/>
@@ -9309,14 +9389,14 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="79"/>
       <c r="B75" s="12"/>
       <c r="C75" s="66"/>
-      <c r="D75" s="16"/>
+      <c r="D75" s="13"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="78"/>
@@ -9325,16 +9405,16 @@
       <c r="D76" s="16"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="17"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="78"/>
       <c r="B77" s="12"/>
       <c r="C77" s="66"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="78"/>
@@ -9391,7 +9471,7 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="79"/>
+      <c r="A84" s="78"/>
       <c r="B84" s="12"/>
       <c r="C84" s="66"/>
       <c r="D84" s="13"/>
@@ -9399,15 +9479,24 @@
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="79"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A75:A84"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="A52:A63"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
@@ -9428,7 +9517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《个人上线率统计表》-方兆强.xlsx
+++ b/周数据/《个人上线率统计表》-方兆强.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hualala\NanJing\周数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F4A46F73-C87A-4722-AEC1-E13A6D9D53CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{210D0ECA-4FEA-46A3-B9F2-916A7A49240E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -52,12 +52,6 @@
     <t>KA项目未上线数</t>
   </si>
   <si>
-    <t>项目远程上线数</t>
-  </si>
-  <si>
-    <t>远程上线占比</t>
-  </si>
-  <si>
     <t>立项总计</t>
   </si>
   <si>
@@ -196,12 +190,6 @@
   <si>
     <t>又卷烧饼润辉店</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>连锁</t>
-  </si>
-  <si>
-    <t>SAAS</t>
   </si>
   <si>
     <t>方兆强</t>
@@ -558,10 +546,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>李雪磊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>八戒肥肠托乐嘉店实施及驻店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -626,11 +610,47 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>花食间花艺</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪冰洋</t>
+    <t>5月15号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓总</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大薯条(夫子庙店)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京市建邺区花拾一间花店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>方兆强</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花食间庐山路店实施培训</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>已调休</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +753,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,18 +798,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1001,30 +1015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1033,73 +1023,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1147,9 +1070,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1159,23 +1080,12 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1184,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,9 +1164,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,10 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,64 +1194,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1355,9 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1395,25 +1254,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1424,6 +1271,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1715,977 +1610,494 @@
     <col min="6" max="6" width="15.90625" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.453125" style="8" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.90625" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="16" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.90625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.6328125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="43" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
         <v>12</v>
       </c>
-      <c r="M2" s="44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
-        <v>12</v>
-      </c>
-      <c r="B3" s="30">
-        <v>51</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="B3" s="60"/>
+      <c r="C3" s="29">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30">
+        <v>6</v>
+      </c>
+      <c r="E3" s="30">
+        <f t="shared" ref="E3:E10" si="0">C3-D3</f>
+        <v>-1</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31">
+        <f t="shared" ref="H3:H10" si="1">F3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <f t="shared" ref="I3:I10" si="2">C3+G3</f>
+        <v>5</v>
+      </c>
+      <c r="J3" s="37">
+        <f t="shared" ref="J3:J10" si="3">D3+G3</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="38">
+        <f t="shared" ref="K3:K10" si="4">J3/I3*100%</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
         <v>1</v>
       </c>
-      <c r="D3" s="32">
-        <v>1</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="33">
-        <f>F3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="45">
-        <v>0</v>
-      </c>
-      <c r="J3" s="46">
-        <f>I3/L3*100%</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="47">
-        <f>C3+G3</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="48">
-        <f>D3+G3</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="49">
-        <f>L3/K3*100%</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="30">
-        <v>52</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32">
-        <v>1</v>
-      </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33">
-        <f t="shared" ref="H4:H8" si="0">F4-G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="45">
-        <v>1</v>
-      </c>
-      <c r="J4" s="46">
-        <f>I4/L4*100%</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="47">
-        <f t="shared" ref="K4:K5" si="1">C4+G4</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="48">
-        <f t="shared" ref="L4:L5" si="2">D4+G4</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="49">
-        <f t="shared" ref="M4:M5" si="3">L4/K4*100%</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="30">
-        <v>53</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="B4" s="60"/>
+      <c r="C4" s="29">
         <v>5</v>
       </c>
-      <c r="D5" s="32">
-        <v>3</v>
-      </c>
-      <c r="E5" s="32">
-        <v>2</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33">
+      <c r="D4" s="30">
+        <v>5</v>
+      </c>
+      <c r="E4" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="46">
-        <f t="shared" ref="J5:J9" si="4">I5/L5*100%</f>
+      <c r="I4" s="36">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J4" s="37">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>2</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="29">
+        <v>4</v>
+      </c>
+      <c r="D5" s="30">
+        <v>6</v>
+      </c>
+      <c r="E5" s="30">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="47">
+      <c r="I5" s="36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K5" s="38">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="61">
+        <v>3</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>5</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L5" s="48">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="49">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33">
+      <c r="K6" s="38" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>4</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="29">
+        <v>9</v>
+      </c>
+      <c r="D7" s="30">
+        <v>9</v>
+      </c>
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33">
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="61">
+        <v>5</v>
+      </c>
+      <c r="B8" s="62">
+        <v>18</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="38">
-        <f t="shared" si="0"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="31">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-    </row>
-    <row r="9" spans="1:13" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71">
-        <v>1</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37">
-        <f t="shared" ref="E9" si="5">C9-D9</f>
+      <c r="I8" s="36">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51" t="e">
+      <c r="J8" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="38" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="30">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62">
+        <v>19</v>
+      </c>
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="C10" s="31">
-        <v>7</v>
-      </c>
-      <c r="D10" s="32">
-        <v>2</v>
-      </c>
-      <c r="E10" s="32">
-        <v>5</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="33">
-        <f>F10-G10</f>
+      <c r="D9" s="30">
         <v>0</v>
       </c>
-      <c r="I10" s="45">
+      <c r="E9" s="30">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="46">
-        <f>I10/L10*100%</f>
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="47">
-        <f>C10+G10</f>
-        <v>7</v>
-      </c>
-      <c r="L10" s="48">
-        <f>D10+G10</f>
-        <v>2</v>
-      </c>
-      <c r="M10" s="49">
-        <f>L10/K10*100%</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="30">
-        <v>2</v>
-      </c>
-      <c r="C11" s="31">
-        <v>5</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="31">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="32">
-        <v>5</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="33">
-        <f t="shared" ref="H11:H14" si="6">F11-G11</f>
+      <c r="I9" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="45">
+      <c r="K9" s="38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J11" s="46">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="60">
+        <v>20</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>4</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="47">
-        <f t="shared" ref="K11:K14" si="7">C11+G11</f>
-        <v>5</v>
-      </c>
-      <c r="L11" s="48">
-        <f t="shared" ref="L11:L14" si="8">D11+G11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="49">
-        <f t="shared" ref="M11:M14" si="9">L11/K11*100%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="30">
-        <v>3</v>
-      </c>
-      <c r="C12" s="31">
-        <v>6</v>
-      </c>
-      <c r="D12" s="32">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32">
-        <v>6</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0</v>
-      </c>
-      <c r="J12" s="46">
-        <v>0</v>
-      </c>
-      <c r="K12" s="47">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="L12" s="48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="30">
+      <c r="I10" s="36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C13" s="31">
-        <v>6</v>
-      </c>
-      <c r="D13" s="32">
-        <v>1</v>
-      </c>
-      <c r="E13" s="32">
-        <v>5</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="45">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46">
-        <f t="shared" ref="J13:J14" si="10">I13/L13*100%</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="47">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="L13" s="48">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="49">
-        <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="30">
-        <v>5</v>
-      </c>
-      <c r="C14" s="31">
-        <v>7</v>
-      </c>
-      <c r="D14" s="32">
-        <v>2</v>
-      </c>
-      <c r="E14" s="32">
-        <v>5</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="45">
-        <v>1</v>
-      </c>
-      <c r="J14" s="46">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="47">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="L14" s="48">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="M14" s="49">
-        <f t="shared" si="9"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
-        <v>2</v>
-      </c>
-      <c r="B15" s="30">
-        <v>6</v>
-      </c>
-      <c r="C15" s="31">
-        <v>7</v>
-      </c>
-      <c r="D15" s="32">
-        <v>2</v>
-      </c>
-      <c r="E15" s="32">
-        <v>5</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33">
-        <f>F15-G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="45">
-        <v>1</v>
-      </c>
-      <c r="J15" s="46">
-        <f>I15/L15*100%</f>
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="47">
-        <f>C15+G15</f>
-        <v>7</v>
-      </c>
-      <c r="L15" s="48">
-        <f>D15+G15</f>
-        <v>2</v>
-      </c>
-      <c r="M15" s="49">
-        <f>L15/K15*100%</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="30">
-        <v>7</v>
-      </c>
-      <c r="C16" s="31">
-        <v>5</v>
-      </c>
-      <c r="D16" s="32">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32">
-        <v>5</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33">
-        <f t="shared" ref="H16:H18" si="11">F16-G16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="45">
-        <v>0</v>
-      </c>
-      <c r="J16" s="46">
-        <v>0</v>
-      </c>
-      <c r="K16" s="47">
-        <f t="shared" ref="K16:K18" si="12">C16+G16</f>
-        <v>5</v>
-      </c>
-      <c r="L16" s="48">
-        <f t="shared" ref="L16:L18" si="13">D16+G16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="49">
-        <f t="shared" ref="M16:M18" si="14">L16/K16*100%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="30">
-        <v>8</v>
-      </c>
-      <c r="C17" s="31">
-        <v>6</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0</v>
-      </c>
-      <c r="E17" s="32">
-        <v>6</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="45">
-        <v>0</v>
-      </c>
-      <c r="J17" s="46">
-        <v>0</v>
-      </c>
-      <c r="K17" s="47">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="L17" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="49">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="30">
-        <v>9</v>
-      </c>
-      <c r="C18" s="31">
-        <v>6</v>
-      </c>
-      <c r="D18" s="32">
-        <v>3</v>
-      </c>
-      <c r="E18" s="32">
-        <v>3</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="45">
-        <v>1</v>
-      </c>
-      <c r="J18" s="46">
-        <f t="shared" ref="J18:J19" si="15">I18/L18*100%</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K18" s="47">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="L18" s="48">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="M18" s="49">
-        <f t="shared" si="14"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="30">
-        <v>10</v>
-      </c>
-      <c r="C19" s="31">
-        <v>3</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
-        <v>3</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33">
-        <f t="shared" ref="H19" si="16">F19-G19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="45">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="47">
-        <f t="shared" ref="K19" si="17">C19+G19</f>
-        <v>3</v>
-      </c>
-      <c r="L19" s="48">
-        <f t="shared" ref="L19" si="18">D19+G19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="49">
-        <f t="shared" ref="M19" si="19">L19/K19*100%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
-        <v>3</v>
-      </c>
-      <c r="B20" s="30">
-        <v>11</v>
-      </c>
-      <c r="C20" s="31">
-        <v>6</v>
-      </c>
-      <c r="D20" s="32">
-        <v>0</v>
-      </c>
-      <c r="E20" s="32">
-        <v>0</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33">
-        <f>F20-G20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="45">
-        <v>0</v>
-      </c>
-      <c r="J20" s="46">
-        <v>0</v>
-      </c>
-      <c r="K20" s="47">
-        <f>C20+G20</f>
-        <v>6</v>
-      </c>
-      <c r="L20" s="48">
-        <f>D20+G20</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="49">
-        <f>L20/K20*100%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="30">
-        <v>12</v>
-      </c>
-      <c r="C21" s="31">
-        <v>6</v>
-      </c>
-      <c r="D21" s="32">
-        <v>0</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="33">
-        <f t="shared" ref="H21:H22" si="20">F21-G21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="45">
-        <v>0</v>
-      </c>
-      <c r="J21" s="46">
-        <v>0</v>
-      </c>
-      <c r="K21" s="47">
-        <f t="shared" ref="K21:K27" si="21">C21+G21</f>
-        <v>6</v>
-      </c>
-      <c r="L21" s="48">
-        <f t="shared" ref="L21:L27" si="22">D21+G21</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="49">
-        <f t="shared" ref="M21:M27" si="23">L21/K21*100%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="30">
-        <v>13</v>
-      </c>
-      <c r="C22" s="31">
-        <v>6</v>
-      </c>
-      <c r="D22" s="32">
-        <v>5</v>
-      </c>
-      <c r="E22" s="32">
-        <v>1</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="33">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="45">
-        <v>2</v>
-      </c>
-      <c r="J22" s="46">
-        <f t="shared" ref="J22:J27" si="24">I22/L22*100%</f>
-        <v>0.4</v>
-      </c>
-      <c r="K22" s="47">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="L22" s="48">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="M22" s="49">
-        <f t="shared" si="23"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
-      <c r="B23" s="30">
-        <v>14</v>
-      </c>
-      <c r="C23" s="31">
-        <v>5</v>
-      </c>
-      <c r="D23" s="32">
-        <v>1</v>
-      </c>
-      <c r="E23" s="32">
+      <c r="K10" s="38">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="45">
-        <v>0</v>
-      </c>
-      <c r="J23" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="47">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="L23" s="48">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="49">
-        <f t="shared" si="23"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
-        <v>4</v>
-      </c>
-      <c r="B24" s="30">
-        <v>15</v>
-      </c>
-      <c r="C24" s="31">
-        <v>4</v>
-      </c>
-      <c r="D24" s="32">
-        <v>1</v>
-      </c>
-      <c r="E24" s="32">
-        <v>3</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="45">
-        <v>0</v>
-      </c>
-      <c r="J24" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="47">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="L24" s="48">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="49">
-        <f t="shared" si="23"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="30">
-        <v>16</v>
-      </c>
-      <c r="C25" s="31">
-        <v>5</v>
-      </c>
-      <c r="D25" s="32">
-        <v>2</v>
-      </c>
-      <c r="E25" s="32">
-        <v>3</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="45">
-        <v>0</v>
-      </c>
-      <c r="J25" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="47">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="L25" s="48">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="M25" s="49">
-        <f t="shared" si="23"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="30">
-        <v>17</v>
-      </c>
-      <c r="C26" s="31">
-        <v>8</v>
-      </c>
-      <c r="D26" s="32">
-        <v>2</v>
-      </c>
-      <c r="E26" s="32">
-        <v>4</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="45">
-        <v>0</v>
-      </c>
-      <c r="J26" s="46">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="47">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="L26" s="48">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="M26" s="49">
-        <f t="shared" si="23"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="30">
-        <v>19</v>
-      </c>
-      <c r="C27" s="31">
-        <v>6</v>
-      </c>
-      <c r="D27" s="32">
-        <v>0</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="45">
-        <v>0</v>
-      </c>
-      <c r="J27" s="46" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="47">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="L27" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="49">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2697,14 +2109,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="47" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="26.90625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -2718,1297 +2130,1417 @@
   <sheetData>
     <row r="1" spans="1:15" s="18" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="45">
         <v>43102</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="G2" s="40">
+        <v>76119980</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="I2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="56">
-        <v>76119980</v>
-      </c>
-      <c r="H2" s="55" t="s">
+      <c r="J2" s="39" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>42</v>
       </c>
       <c r="K2" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>44</v>
+      <c r="L2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="N2" s="1">
         <v>18112141314</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="45">
         <v>43103</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="40">
+        <v>76120617</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="56">
-        <v>76120617</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>42</v>
+      <c r="I3" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="K3" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="40">
+        <v>15651615666</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="56">
-        <v>15651615666</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="45">
         <v>43124</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="56">
+      <c r="C4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="40">
         <v>76125705</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>61</v>
+      <c r="H4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L4" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>63</v>
+      <c r="L4" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="N4" s="1">
         <v>13952023516</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="45">
         <v>43129</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>64</v>
+      <c r="C5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="G5" s="1">
         <v>76125076</v>
       </c>
-      <c r="H5" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>66</v>
+      <c r="H5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="K5" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L5" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>68</v>
+      <c r="L5" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="N5" s="1">
         <v>15605155898</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="45">
         <v>43130</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>71</v>
+      <c r="C6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="1">
         <v>76125593</v>
       </c>
-      <c r="H6" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="55" t="s">
+      <c r="H6" s="39" t="s">
         <v>66</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="K6" s="1">
         <v>15952077449</v>
       </c>
-      <c r="L6" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>73</v>
+      <c r="L6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="N6" s="1">
         <v>18796963653</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="45">
         <v>43132</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="1">
         <v>76128399</v>
       </c>
-      <c r="H7" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>42</v>
+      <c r="H7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="K7" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L7" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>76</v>
+      <c r="L7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="N7" s="14">
         <v>13773320055</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="45">
         <v>43133</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>77</v>
+      <c r="C8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="G8" s="14">
         <v>76129828</v>
       </c>
-      <c r="H8" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>42</v>
+      <c r="H8" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="K8" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L8" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>76</v>
+      <c r="L8" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="N8" s="14">
         <v>18952027077</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="45">
         <v>43140</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>58</v>
+      <c r="C9" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="G9" s="14">
         <v>76130623</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="K9" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L9" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>87</v>
+      <c r="L9" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="N9" s="14">
         <v>18768124846</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="45">
         <v>43144</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>58</v>
+      <c r="C10" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="G10" s="14">
         <v>76118602</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="K10" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L10" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="55">
+      <c r="L10" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="39">
         <v>18762310760</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="45">
         <v>43157</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>58</v>
+      <c r="C11" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G11" s="14">
         <v>76131263</v>
       </c>
-      <c r="H11" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>42</v>
+      <c r="H11" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="K11" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L11" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" s="55" t="s">
+      <c r="L11" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="69" t="s">
-        <v>96</v>
+      <c r="M11" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="45">
         <v>43158</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>58</v>
+      <c r="C12" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="G12" s="14">
         <v>76132273</v>
       </c>
-      <c r="H12" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>42</v>
+      <c r="H12" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="K12" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L12" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="69">
+      <c r="L12" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="52">
         <v>13814504030</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="45">
         <v>43183</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>58</v>
+      <c r="C13" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="14">
         <v>76137862</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13" s="14">
         <v>15952077449</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N13" s="14">
         <v>15996213885</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="45">
         <v>43183</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>58</v>
+      <c r="C14" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="14">
         <v>76137863</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14" s="14">
         <v>15952077449</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" s="14">
         <v>15996213885</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="45">
         <v>43184</v>
       </c>
-      <c r="C15" s="55" t="s">
-        <v>58</v>
+      <c r="C15" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="14">
         <v>76139652</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L15" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="55" t="s">
-        <v>50</v>
+      <c r="L15" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="N15" s="1">
         <v>18952027077</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="45">
         <v>43185</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>58</v>
+      <c r="C16" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="G16" s="14">
         <v>76150298</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K16" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L16" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>50</v>
+      <c r="L16" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="N16" s="14">
         <v>18952027077</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>13</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="45">
         <v>43186</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>58</v>
+      <c r="C17" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="14">
         <v>76150305</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L17" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>50</v>
+      <c r="L17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="N17" s="14">
         <v>18952027077</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="45">
         <v>43197</v>
       </c>
-      <c r="C18" s="55" t="s">
-        <v>58</v>
+      <c r="C18" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="G18" s="14">
         <v>76156072</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K18" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L18" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="55" t="s">
-        <v>116</v>
+      <c r="L18" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="N18" s="1">
         <v>15365136818</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="45">
         <v>43201</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G19" s="14">
         <v>76155329</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K19" s="14">
         <v>15952077449</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N19" s="1">
         <v>18910614320</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="45">
         <v>43207</v>
       </c>
-      <c r="C20" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>127</v>
+      <c r="C20" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="G20" s="14">
         <v>76153256</v>
       </c>
-      <c r="H20" s="55" t="s">
-        <v>128</v>
+      <c r="H20" s="39" t="s">
+        <v>124</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K20" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L20" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="55" t="s">
-        <v>130</v>
+      <c r="L20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="N20" s="1">
         <v>13913145062</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="45">
         <v>43207</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="55">
+      <c r="C21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="39">
         <v>76158795</v>
       </c>
-      <c r="H21" s="55" t="s">
-        <v>134</v>
+      <c r="H21" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K21" s="14">
         <v>15952077449</v>
       </c>
-      <c r="L21" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" s="55" t="s">
-        <v>130</v>
+      <c r="L21" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="N21" s="14">
         <v>13675152232</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>18</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="45">
         <v>43220</v>
       </c>
-      <c r="C22" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="55" t="s">
+      <c r="C22" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="55" t="s">
+      <c r="G22" s="39">
+        <v>76158188</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="55">
-        <v>76158188</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="55">
+      <c r="J22" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="39">
         <v>15952077449</v>
       </c>
-      <c r="L22" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="55">
+      <c r="L22" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="39">
         <v>15396777171</v>
       </c>
-      <c r="O22" s="55" t="s">
-        <v>104</v>
+      <c r="O22" s="39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>18</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="45">
         <v>43220</v>
       </c>
-      <c r="C23" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="55" t="s">
+      <c r="C23" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="39">
+        <v>76153259</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="39">
+        <v>15952077449</v>
+      </c>
+      <c r="L23" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="55">
-        <v>76153259</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="55">
-        <v>15952077449</v>
-      </c>
-      <c r="L23" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="55">
+      <c r="M23" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="39">
         <v>13913145062</v>
       </c>
-      <c r="O23" s="55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>18</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="45">
         <v>43220</v>
       </c>
-      <c r="C24" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="55">
+      <c r="C24" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="39">
         <v>76159325</v>
       </c>
-      <c r="H24" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="55">
+      <c r="H24" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="39">
         <v>15952077449</v>
       </c>
-      <c r="L24" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="55">
+      <c r="L24" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="39">
         <v>13003428203</v>
       </c>
-      <c r="O24" s="55" t="s">
-        <v>104</v>
+      <c r="O24" s="39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="45">
         <v>43220</v>
       </c>
-      <c r="C25" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>41</v>
+      <c r="C25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="G25" s="1">
         <v>76163656</v>
       </c>
-      <c r="H25" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="55">
+      <c r="H25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="39">
         <v>15952077449</v>
       </c>
-      <c r="L25" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="M25" s="55" t="s">
-        <v>50</v>
+      <c r="L25" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="N25" s="1">
         <v>18651801572</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>18</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="45">
         <v>43220</v>
       </c>
-      <c r="C26" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="55" t="s">
+      <c r="C26" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>37</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>39</v>
       </c>
       <c r="G26" s="14">
         <v>76119975</v>
       </c>
-      <c r="H26" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="55">
+      <c r="H26" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="39">
         <v>15952077449</v>
       </c>
-      <c r="L26" s="55" t="s">
+      <c r="L26" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="39">
+        <v>15396777171</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="39">
+        <v>76159317</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="39">
+        <v>15952077449</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="39">
+        <v>13003428203</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>20</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="M26" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="55">
-        <v>15396777171</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="F28" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="39">
+        <v>76168257</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="39">
+        <v>15952077449</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="1">
+        <v>15952825263</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="A29" s="14">
+        <v>20</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="39">
+        <v>76166928</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="39">
+        <v>15952077449</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="1">
+        <v>15951874491</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="A30" s="14">
+        <v>20</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="39">
+        <v>76166316</v>
+      </c>
+      <c r="H30" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="39">
+        <v>15952077449</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="1">
+        <v>13952035527</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="62"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4025,7 +3557,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="62"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4042,7 +3574,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="62"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4059,7 +3591,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="62"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4076,7 +3608,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="62"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -4093,7 +3625,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="62"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4110,7 +3642,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="62"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4127,7 +3659,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="62"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4144,7 +3676,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="62"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4161,7 +3693,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="62"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4178,7 +3710,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="62"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4195,7 +3727,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="62"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4212,7 +3744,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="62"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4229,7 +3761,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="62"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4246,7 +3778,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="62"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4263,7 +3795,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="62"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4280,7 +3812,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="62"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4297,7 +3829,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="62"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4314,7 +3846,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="62"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4331,7 +3863,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="62"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4348,7 +3880,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="62"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4365,7 +3897,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="62"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4382,7 +3914,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="62"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4399,7 +3931,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="62"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4416,7 +3948,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="62"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4433,7 +3965,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="62"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4450,7 +3982,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="62"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4467,7 +3999,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="62"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4484,7 +4016,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="62"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4501,7 +4033,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="62"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4518,7 +4050,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="62"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4535,7 +4067,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="62"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4552,7 +4084,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="62"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4569,7 +4101,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="62"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4586,7 +4118,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="62"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4603,7 +4135,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="62"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4620,7 +4152,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="62"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4637,7 +4169,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="62"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4654,7 +4186,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="62"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4671,7 +4203,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="62"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4688,7 +4220,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="62"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4705,7 +4237,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="62"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4722,7 +4254,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="62"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4739,7 +4271,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="62"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4756,7 +4288,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="62"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4773,7 +4305,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="62"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4790,7 +4322,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="62"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4807,7 +4339,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="62"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4824,7 +4356,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="62"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4841,7 +4373,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="62"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4858,7 +4390,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="62"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4875,7 +4407,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="62"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4892,7 +4424,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="62"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4909,7 +4441,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="62"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4926,7 +4458,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="62"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4943,7 +4475,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="62"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4960,7 +4492,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="62"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4977,7 +4509,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="62"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4994,7 +4526,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="62"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5011,7 +4543,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="62"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5028,7 +4560,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="62"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -5045,7 +4577,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="62"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -5062,7 +4594,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="62"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5079,7 +4611,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="62"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5096,7 +4628,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="62"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5113,7 +4645,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="62"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5130,7 +4662,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="62"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5147,7 +4679,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="62"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5164,7 +4696,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="62"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5181,7 +4713,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="62"/>
+      <c r="B100" s="45"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -5198,7 +4730,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="62"/>
+      <c r="B101" s="45"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -5215,7 +4747,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
-      <c r="B102" s="62"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5232,7 +4764,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="62"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -5249,7 +4781,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="62"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -5266,7 +4798,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="62"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -5283,7 +4815,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="62"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -5300,7 +4832,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="62"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -5317,7 +4849,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="62"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5334,7 +4866,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="62"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -5351,7 +4883,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="62"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -5368,7 +4900,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="62"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -5385,7 +4917,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="62"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -5402,7 +4934,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="62"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -5419,7 +4951,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="62"/>
+      <c r="B114" s="45"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -5436,7 +4968,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="62"/>
+      <c r="B115" s="45"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -5453,7 +4985,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="62"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -5470,7 +5002,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="62"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -5487,7 +5019,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="62"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -5504,7 +5036,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="62"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -5521,7 +5053,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="62"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5538,7 +5070,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="62"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -5555,7 +5087,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="62"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5572,7 +5104,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="62"/>
+      <c r="B123" s="45"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5589,7 +5121,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="62"/>
+      <c r="B124" s="45"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -5606,7 +5138,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="62"/>
+      <c r="B125" s="45"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -5623,7 +5155,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="62"/>
+      <c r="B126" s="45"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -5640,7 +5172,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="62"/>
+      <c r="B127" s="45"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -5657,7 +5189,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="62"/>
+      <c r="B128" s="45"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -5674,7 +5206,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="62"/>
+      <c r="B129" s="45"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -5691,7 +5223,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
-      <c r="B130" s="62"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -5708,7 +5240,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="62"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -5725,7 +5257,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
-      <c r="B132" s="62"/>
+      <c r="B132" s="45"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5742,7 +5274,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="62"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5759,7 +5291,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="62"/>
+      <c r="B134" s="45"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5776,7 +5308,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="62"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5793,7 +5325,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="62"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5810,7 +5342,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="62"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5827,7 +5359,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="62"/>
+      <c r="B138" s="45"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5844,7 +5376,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="62"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5861,7 +5393,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="62"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5878,7 +5410,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="62"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5895,7 +5427,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="62"/>
+      <c r="B142" s="45"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5912,7 +5444,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="62"/>
+      <c r="B143" s="45"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5929,7 +5461,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="62"/>
+      <c r="B144" s="45"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5946,7 +5478,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="62"/>
+      <c r="B145" s="45"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5963,7 +5495,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="62"/>
+      <c r="B146" s="45"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5980,7 +5512,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" s="62"/>
+      <c r="B147" s="45"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5997,7 +5529,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="62"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -6014,7 +5546,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="62"/>
+      <c r="B149" s="45"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -6031,7 +5563,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="62"/>
+      <c r="B150" s="45"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -6048,7 +5580,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="62"/>
+      <c r="B151" s="45"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -6065,7 +5597,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
-      <c r="B152" s="62"/>
+      <c r="B152" s="45"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -6082,7 +5614,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="62"/>
+      <c r="B153" s="45"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -6099,7 +5631,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
-      <c r="B154" s="62"/>
+      <c r="B154" s="45"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -6116,7 +5648,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="62"/>
+      <c r="B155" s="45"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -6133,7 +5665,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
-      <c r="B156" s="62"/>
+      <c r="B156" s="45"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -6150,7 +5682,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="62"/>
+      <c r="B157" s="45"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -6167,7 +5699,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
-      <c r="B158" s="62"/>
+      <c r="B158" s="45"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -6184,7 +5716,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
-      <c r="B159" s="62"/>
+      <c r="B159" s="45"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -6201,7 +5733,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="62"/>
+      <c r="B160" s="45"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -6218,7 +5750,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="62"/>
+      <c r="B161" s="45"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -6235,7 +5767,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="62"/>
+      <c r="B162" s="45"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -6252,7 +5784,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="62"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -6269,7 +5801,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
-      <c r="B164" s="62"/>
+      <c r="B164" s="45"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -6286,7 +5818,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="62"/>
+      <c r="B165" s="45"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -6303,7 +5835,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="62"/>
+      <c r="B166" s="45"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -6320,7 +5852,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="62"/>
+      <c r="B167" s="45"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -6337,7 +5869,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="62"/>
+      <c r="B168" s="45"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -6354,7 +5886,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="62"/>
+      <c r="B169" s="45"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -6371,7 +5903,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="62"/>
+      <c r="B170" s="45"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -6388,7 +5920,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="62"/>
+      <c r="B171" s="45"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -6405,7 +5937,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="62"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -6422,7 +5954,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="62"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -6439,7 +5971,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="62"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -6456,7 +5988,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-      <c r="B175" s="62"/>
+      <c r="B175" s="45"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -6473,7 +6005,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="62"/>
+      <c r="B176" s="45"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -6490,7 +6022,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="62"/>
+      <c r="B177" s="45"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -6507,7 +6039,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="62"/>
+      <c r="B178" s="45"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -6524,7 +6056,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-      <c r="B179" s="62"/>
+      <c r="B179" s="45"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -6541,7 +6073,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="62"/>
+      <c r="B180" s="45"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -6558,7 +6090,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-      <c r="B181" s="62"/>
+      <c r="B181" s="45"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -6575,7 +6107,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="62"/>
+      <c r="B182" s="45"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -6592,7 +6124,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-      <c r="B183" s="62"/>
+      <c r="B183" s="45"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -6609,7 +6141,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
-      <c r="B184" s="62"/>
+      <c r="B184" s="45"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -6626,7 +6158,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-      <c r="B185" s="62"/>
+      <c r="B185" s="45"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -6643,7 +6175,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
-      <c r="B186" s="62"/>
+      <c r="B186" s="45"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -6660,7 +6192,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-      <c r="B187" s="62"/>
+      <c r="B187" s="45"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -6677,7 +6209,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="62"/>
+      <c r="B188" s="45"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -6694,7 +6226,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="62"/>
+      <c r="B189" s="45"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -6711,7 +6243,7 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="62"/>
+      <c r="B190" s="45"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -6728,7 +6260,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="62"/>
+      <c r="B191" s="45"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -6745,7 +6277,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
-      <c r="B192" s="62"/>
+      <c r="B192" s="45"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6762,7 +6294,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-      <c r="B193" s="62"/>
+      <c r="B193" s="45"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6779,7 +6311,7 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
-      <c r="B194" s="62"/>
+      <c r="B194" s="45"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6796,7 +6328,7 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-      <c r="B195" s="62"/>
+      <c r="B195" s="45"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6813,7 +6345,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
-      <c r="B196" s="62"/>
+      <c r="B196" s="45"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6830,7 +6362,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-      <c r="B197" s="62"/>
+      <c r="B197" s="45"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6847,7 +6379,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
-      <c r="B198" s="62"/>
+      <c r="B198" s="45"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6864,7 +6396,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-      <c r="B199" s="62"/>
+      <c r="B199" s="45"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6881,7 +6413,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
-      <c r="B200" s="62"/>
+      <c r="B200" s="45"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6898,7 +6430,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="62"/>
+      <c r="B201" s="45"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6915,7 +6447,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="62"/>
+      <c r="B202" s="45"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6932,7 +6464,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="62"/>
+      <c r="B203" s="45"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6949,7 +6481,7 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="62"/>
+      <c r="B204" s="45"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6966,7 +6498,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-      <c r="B205" s="62"/>
+      <c r="B205" s="45"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6983,7 +6515,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
-      <c r="B206" s="62"/>
+      <c r="B206" s="45"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -7000,7 +6532,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-      <c r="B207" s="62"/>
+      <c r="B207" s="45"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -7017,7 +6549,7 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="62"/>
+      <c r="B208" s="45"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -7034,7 +6566,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-      <c r="B209" s="62"/>
+      <c r="B209" s="45"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -7051,7 +6583,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
-      <c r="B210" s="62"/>
+      <c r="B210" s="45"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -7068,7 +6600,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-      <c r="B211" s="62"/>
+      <c r="B211" s="45"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -7085,7 +6617,7 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
-      <c r="B212" s="62"/>
+      <c r="B212" s="45"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -7102,7 +6634,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-      <c r="B213" s="62"/>
+      <c r="B213" s="45"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -7119,7 +6651,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
-      <c r="B214" s="62"/>
+      <c r="B214" s="45"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -7136,7 +6668,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
-      <c r="B215" s="62"/>
+      <c r="B215" s="45"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -7153,7 +6685,7 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
-      <c r="B216" s="62"/>
+      <c r="B216" s="45"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -7170,7 +6702,7 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
-      <c r="B217" s="62"/>
+      <c r="B217" s="45"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -7187,7 +6719,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="62"/>
+      <c r="B218" s="45"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -7204,7 +6736,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="62"/>
+      <c r="B219" s="45"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -7221,7 +6753,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="62"/>
+      <c r="B220" s="45"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -7238,7 +6770,7 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="62"/>
+      <c r="B221" s="45"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -7255,7 +6787,7 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
-      <c r="B222" s="62"/>
+      <c r="B222" s="45"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -7272,7 +6804,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
-      <c r="B223" s="62"/>
+      <c r="B223" s="45"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -7289,7 +6821,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
-      <c r="B224" s="62"/>
+      <c r="B224" s="45"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -7306,7 +6838,7 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
-      <c r="B225" s="62"/>
+      <c r="B225" s="45"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -7323,7 +6855,7 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
-      <c r="B226" s="62"/>
+      <c r="B226" s="45"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -7340,7 +6872,7 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
-      <c r="B227" s="62"/>
+      <c r="B227" s="45"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -7357,7 +6889,7 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
-      <c r="B228" s="62"/>
+      <c r="B228" s="45"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -7374,7 +6906,7 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
-      <c r="B229" s="62"/>
+      <c r="B229" s="45"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -7391,7 +6923,7 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
-      <c r="B230" s="62"/>
+      <c r="B230" s="45"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -7408,7 +6940,7 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="62"/>
+      <c r="B231" s="45"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -7425,7 +6957,7 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
-      <c r="B232" s="62"/>
+      <c r="B232" s="45"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -7442,7 +6974,7 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="62"/>
+      <c r="B233" s="45"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -7459,7 +6991,7 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
-      <c r="B234" s="62"/>
+      <c r="B234" s="45"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -7476,7 +7008,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
-      <c r="B235" s="62"/>
+      <c r="B235" s="45"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -7493,7 +7025,7 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
-      <c r="B236" s="62"/>
+      <c r="B236" s="45"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7510,7 +7042,7 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
-      <c r="B237" s="62"/>
+      <c r="B237" s="45"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7527,7 +7059,7 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
-      <c r="B238" s="62"/>
+      <c r="B238" s="45"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7544,7 +7076,7 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
-      <c r="B239" s="62"/>
+      <c r="B239" s="45"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7561,7 +7093,7 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
-      <c r="B240" s="62"/>
+      <c r="B240" s="45"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7578,7 +7110,7 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
-      <c r="B241" s="62"/>
+      <c r="B241" s="45"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -7595,7 +7127,7 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
-      <c r="B242" s="62"/>
+      <c r="B242" s="45"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -7612,7 +7144,7 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
-      <c r="B243" s="62"/>
+      <c r="B243" s="45"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -7629,7 +7161,7 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
-      <c r="B244" s="62"/>
+      <c r="B244" s="45"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -7646,7 +7178,7 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
-      <c r="B245" s="62"/>
+      <c r="B245" s="45"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7663,7 +7195,7 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
-      <c r="B246" s="62"/>
+      <c r="B246" s="45"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -7680,7 +7212,7 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
-      <c r="B247" s="62"/>
+      <c r="B247" s="45"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -7697,7 +7229,7 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
-      <c r="B248" s="62"/>
+      <c r="B248" s="45"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -7714,7 +7246,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
-      <c r="B249" s="62"/>
+      <c r="B249" s="45"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -7731,7 +7263,7 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
-      <c r="B250" s="62"/>
+      <c r="B250" s="45"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7748,7 +7280,7 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
-      <c r="B251" s="62"/>
+      <c r="B251" s="45"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7765,7 +7297,7 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
-      <c r="B252" s="62"/>
+      <c r="B252" s="45"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7782,7 +7314,7 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
-      <c r="B253" s="62"/>
+      <c r="B253" s="45"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7799,7 +7331,7 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
-      <c r="B254" s="62"/>
+      <c r="B254" s="45"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7816,7 +7348,7 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
-      <c r="B255" s="62"/>
+      <c r="B255" s="45"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7833,7 +7365,7 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
-      <c r="B256" s="62"/>
+      <c r="B256" s="45"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7850,7 +7382,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
-      <c r="B257" s="62"/>
+      <c r="B257" s="45"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7867,7 +7399,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
-      <c r="B258" s="62"/>
+      <c r="B258" s="45"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7884,7 +7416,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
-      <c r="B259" s="62"/>
+      <c r="B259" s="45"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7901,7 +7433,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
-      <c r="B260" s="62"/>
+      <c r="B260" s="45"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7918,7 +7450,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
-      <c r="B261" s="62"/>
+      <c r="B261" s="45"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7935,7 +7467,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
-      <c r="B262" s="62"/>
+      <c r="B262" s="45"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7952,7 +7484,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
-      <c r="B263" s="62"/>
+      <c r="B263" s="45"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7969,7 +7501,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="62"/>
+      <c r="B264" s="45"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7986,7 +7518,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="62"/>
+      <c r="B265" s="45"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -8003,7 +7535,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="62"/>
+      <c r="B266" s="45"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -8020,7 +7552,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="62"/>
+      <c r="B267" s="45"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -8037,7 +7569,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
-      <c r="B268" s="62"/>
+      <c r="B268" s="45"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -8054,7 +7586,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
-      <c r="B269" s="62"/>
+      <c r="B269" s="45"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -8071,7 +7603,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
-      <c r="B270" s="62"/>
+      <c r="B270" s="45"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -8088,7 +7620,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
-      <c r="B271" s="62"/>
+      <c r="B271" s="45"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -8105,7 +7637,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
-      <c r="B272" s="62"/>
+      <c r="B272" s="45"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -8122,7 +7654,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
-      <c r="B273" s="62"/>
+      <c r="B273" s="45"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -8139,7 +7671,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
-      <c r="B274" s="62"/>
+      <c r="B274" s="45"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -8156,7 +7688,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
-      <c r="B275" s="62"/>
+      <c r="B275" s="45"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -8173,7 +7705,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
-      <c r="B276" s="62"/>
+      <c r="B276" s="45"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -8190,7 +7722,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
-      <c r="B277" s="62"/>
+      <c r="B277" s="45"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -8207,7 +7739,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
-      <c r="B278" s="62"/>
+      <c r="B278" s="45"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -8224,7 +7756,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
-      <c r="B279" s="62"/>
+      <c r="B279" s="45"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -8241,7 +7773,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
-      <c r="B280" s="62"/>
+      <c r="B280" s="45"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -8258,7 +7790,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
-      <c r="B281" s="62"/>
+      <c r="B281" s="45"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8275,7 +7807,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
-      <c r="B282" s="62"/>
+      <c r="B282" s="45"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8292,7 +7824,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
-      <c r="B283" s="62"/>
+      <c r="B283" s="45"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8309,7 +7841,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
-      <c r="B284" s="62"/>
+      <c r="B284" s="45"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8326,7 +7858,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
-      <c r="B285" s="62"/>
+      <c r="B285" s="45"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8343,7 +7875,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
-      <c r="B286" s="62"/>
+      <c r="B286" s="45"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -8360,7 +7892,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
-      <c r="B287" s="62"/>
+      <c r="B287" s="45"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -8377,7 +7909,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
-      <c r="B288" s="62"/>
+      <c r="B288" s="45"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -8394,7 +7926,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
-      <c r="B289" s="62"/>
+      <c r="B289" s="45"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -8411,7 +7943,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
-      <c r="B290" s="62"/>
+      <c r="B290" s="45"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -8428,7 +7960,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
-      <c r="B291" s="62"/>
+      <c r="B291" s="45"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -8445,7 +7977,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
-      <c r="B292" s="62"/>
+      <c r="B292" s="45"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -8462,7 +7994,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
-      <c r="B293" s="62"/>
+      <c r="B293" s="45"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -8479,7 +8011,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
-      <c r="B294" s="62"/>
+      <c r="B294" s="45"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8496,7 +8028,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
-      <c r="B295" s="62"/>
+      <c r="B295" s="45"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -8513,7 +8045,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
-      <c r="B296" s="62"/>
+      <c r="B296" s="45"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -8530,7 +8062,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
-      <c r="B297" s="62"/>
+      <c r="B297" s="45"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -8547,7 +8079,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
-      <c r="B298" s="62"/>
+      <c r="B298" s="45"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -8564,7 +8096,7 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
-      <c r="B299" s="62"/>
+      <c r="B299" s="45"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -8581,7 +8113,7 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
-      <c r="B300" s="62"/>
+      <c r="B300" s="45"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -8616,17 +8148,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6328125" style="8"/>
     <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="47" customWidth="1"/>
     <col min="4" max="4" width="35.26953125" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -8638,865 +8170,781 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="78">
-        <v>19</v>
+      <c r="A2" s="57">
+        <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="66">
+        <v>133</v>
+      </c>
+      <c r="C2" s="49">
         <v>43203</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="49">
+        <v>43215</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="66">
-        <v>43205</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="66">
-        <v>43215</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="66">
-        <v>43229</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="66">
-        <v>43224</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="66">
-        <v>43225</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+        <v>153</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="13" t="s">
-        <v>158</v>
-      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="16"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="16"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="66"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="13"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="66"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="62"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="13"/>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="13"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="16"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="78"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="16"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="66"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="66"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="62"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="62"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="66"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="66"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="62"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="13"/>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="13"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="66"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="66"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="13"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="66"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="66"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="66"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="13"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="66"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="13"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="62"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="13"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="62"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="13"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="13"/>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="13"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="57"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="13"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="57"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="13"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="57"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="16"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="16"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="57"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="16"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="17"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="66"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="66"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="66"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="66"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="13"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="57"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="13"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="13"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="57"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="16"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="57"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="16"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="57"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="16"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="57"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="16"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="66"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="13"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="66"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="13"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="66"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="13"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="66"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="57"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="13"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="57"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="66"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="79"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="66"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="16"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="57"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="16"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="17"/>
+      <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="66"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="13"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="78"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="66"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="13"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="66"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="13"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="78"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="66"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="13"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="A76:A85"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="A37:A51"/>
-    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="A60:A71"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="A48:A59"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
@@ -9515,10 +8963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9530,125 +8978,146 @@
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>12</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>55</v>
+      <c r="B2" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="6">
         <v>43086</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>12</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="61">
+      <c r="B3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="44">
         <v>43092</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="61">
+      <c r="B4" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="44">
         <v>43197</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="61">
+      <c r="B5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="44">
         <v>43205</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="61">
+      <c r="B6" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="44">
         <v>43211</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="61">
+      <c r="B7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="44">
         <v>43220</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="44">
+        <v>43226</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
